--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C500D738-BCE0-4748-BD42-56177BB52BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA898A00-DE99-489B-BC25-F6BA97D8E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{0D8222D7-DBC4-40E5-A5EA-FF824E7FA8A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5573F623-1485-45B2-9867-A12CA3DEEBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Final consumption expenditure as a % of GDP, 2021</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation as a % of GDP, 2021</t>
-  </si>
-  <si>
-    <t>Changes in inventories as a % of GDP, 2021</t>
-  </si>
-  <si>
-    <t>Foreign balance as a % of GDP, 2021</t>
+    <t>Final consumption expenditure (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Changes in inventories (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Foreign balance (millions of USD), 2021</t>
   </si>
   <si>
     <t>Imports of goods and services as a % of GDP, 2021</t>
@@ -531,10 +531,10 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2022. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>Source: Author's calculations based on IMF World Economic Outlook Database April 2023. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A6D2E-53E1-44DF-A354-381BA6482889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DF0324-C35C-4482-BA48-6BA75B2E3565}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1399,7 +1399,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1433,22 +1433,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="11">
-        <v>55.543535213560602</v>
+        <v>41334.318294823301</v>
       </c>
       <c r="D3" s="12">
-        <v>24.7305907731592</v>
+        <v>18626.457127406899</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>19.725874013280301</v>
+        <v>14829.7886005573</v>
       </c>
       <c r="G3" s="12">
-        <v>25.0669971382722</v>
+        <v>25.197311690123001</v>
       </c>
       <c r="H3" s="13">
-        <v>44.792871152184397</v>
+        <v>45.025733623187897</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1459,22 +1459,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="15">
-        <v>77.112776744127899</v>
+        <v>14055.185127603199</v>
       </c>
       <c r="D4" s="16">
-        <v>26.961375060536501</v>
+        <v>4948.9307063625702</v>
       </c>
       <c r="E4" s="16">
-        <v>0.99812500448912</v>
+        <v>181.81482031786601</v>
       </c>
       <c r="F4" s="16">
-        <v>-5.0722768091535002</v>
+        <v>-925.06745188805996</v>
       </c>
       <c r="G4" s="16">
-        <v>48.162538597130698</v>
+        <v>48.101489130452102</v>
       </c>
       <c r="H4" s="17">
-        <v>43.090261787977198</v>
+        <v>43.035641795443802</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1485,22 +1485,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="19">
-        <v>97.499134851895903</v>
+        <v>4037.0010084374499</v>
       </c>
       <c r="D5" s="20">
-        <v>16.122932825362401</v>
+        <v>667.57819106206705</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
       </c>
       <c r="F5" s="20">
-        <v>-13.622067677258</v>
+        <v>-564.02860428957001</v>
       </c>
       <c r="G5" s="20">
-        <v>63.316419804946399</v>
+        <v>63.316419805022399</v>
       </c>
       <c r="H5" s="21">
-        <v>49.694352127524901</v>
+        <v>49.6943521277895</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1511,22 +1511,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="19">
-        <v>128.04011238394901</v>
+        <v>3149.0171751948001</v>
       </c>
       <c r="D6" s="20">
-        <v>30.196230281086699</v>
+        <v>728.13960909571006</v>
       </c>
       <c r="E6" s="20">
-        <v>-9.5492152150095002</v>
+        <v>-127.35195554034</v>
       </c>
       <c r="F6" s="20">
-        <v>-48.687127450025997</v>
+        <v>-1200.0722384633</v>
       </c>
       <c r="G6" s="20">
-        <v>93.650178225559799</v>
+        <v>90.533062262737204</v>
       </c>
       <c r="H6" s="21">
-        <v>44.963050778265398</v>
+        <v>43.466470141081103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1537,22 +1537,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="19">
-        <v>116.021758906961</v>
+        <v>14579.1708671124</v>
       </c>
       <c r="D7" s="20">
-        <v>9.0192909220991506</v>
+        <v>1089.0537583817199</v>
       </c>
       <c r="E7" s="20">
-        <v>0.20090903139800001</v>
+        <v>27.626838196597198</v>
       </c>
       <c r="F7" s="20">
-        <v>-25.241958860457999</v>
+        <v>-3232.4939317246999</v>
       </c>
       <c r="G7" s="20">
-        <v>34.801385347530797</v>
+        <v>36.0928944299216</v>
       </c>
       <c r="H7" s="21">
-        <v>9.5594264874897803</v>
+        <v>10.1569143103271</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1563,16 +1563,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="19">
-        <v>87.625214702186099</v>
+        <v>13824.425265409</v>
       </c>
       <c r="D8" s="20">
-        <v>49.823784451591997</v>
+        <v>7860.5819903765396</v>
       </c>
       <c r="E8" s="20">
         <v>0</v>
       </c>
       <c r="F8" s="20">
-        <v>-37.448999153777997</v>
+        <v>-5908.2410448331002</v>
       </c>
       <c r="G8" s="20">
         <v>68.833085146965701</v>
@@ -1589,22 +1589,22 @@
         <v>22</v>
       </c>
       <c r="C9" s="19">
-        <v>103.241289446613</v>
+        <v>12495.068270498499</v>
       </c>
       <c r="D9" s="20">
-        <v>14.0609116853743</v>
+        <v>1754.89258873832</v>
       </c>
       <c r="E9" s="20">
-        <v>-4.7387926060600001E-2</v>
+        <v>176.95202641041499</v>
       </c>
       <c r="F9" s="20">
-        <v>-17.254813205927</v>
+        <v>-2125.3110862302001</v>
       </c>
       <c r="G9" s="20">
-        <v>49.741032138030697</v>
+        <v>51.624463876161997</v>
       </c>
       <c r="H9" s="21">
-        <v>32.486218932104101</v>
+        <v>34.3477618589421</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1615,16 +1615,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="19">
-        <v>81.0874186693311</v>
+        <v>340661.64383561601</v>
       </c>
       <c r="D10" s="20">
-        <v>13.054188778531399</v>
+        <v>54842.803991205801</v>
       </c>
       <c r="E10" s="20">
-        <v>-0.29349688766659998</v>
+        <v>-1233.0289193302999</v>
       </c>
       <c r="F10" s="20">
-        <v>6.1518894398041404</v>
+        <v>25845.104008117702</v>
       </c>
       <c r="G10" s="20">
         <v>24.9521385391939</v>
@@ -1641,22 +1641,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="15">
-        <v>53.697018996143598</v>
+        <v>11993.2075787865</v>
       </c>
       <c r="D11" s="16">
-        <v>27.255803539710602</v>
+        <v>6002.39621129221</v>
       </c>
       <c r="E11" s="16">
-        <v>1.37699999999306</v>
+        <v>304.97313455265299</v>
       </c>
       <c r="F11" s="16">
-        <v>17.670177464152701</v>
+        <v>3847.0726434624899</v>
       </c>
       <c r="G11" s="16">
-        <v>36.2928805111003</v>
+        <v>35.058773865585998</v>
       </c>
       <c r="H11" s="17">
-        <v>53.963057975487402</v>
+        <v>52.428890868902698</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1693,22 +1693,22 @@
         <v>31</v>
       </c>
       <c r="C13" s="24">
-        <v>77.067866820537304</v>
+        <v>456129.03742348199</v>
       </c>
       <c r="D13" s="25">
-        <v>17.43729234105</v>
+        <v>96520.834173921801</v>
       </c>
       <c r="E13" s="25">
-        <v>-0.1271195612413</v>
+        <v>-669.01405539309997</v>
       </c>
       <c r="F13" s="25">
-        <v>5.6219603996539798</v>
+        <v>30566.750894708599</v>
       </c>
       <c r="G13" s="25">
-        <v>29.1019691664963</v>
+        <v>29.1209938134939</v>
       </c>
       <c r="H13" s="26">
-        <v>34.723929566290003</v>
+        <v>34.719888820910001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1719,22 +1719,22 @@
         <v>33</v>
       </c>
       <c r="C14" s="19">
-        <v>106.21954870304199</v>
+        <v>3526.3310778072901</v>
       </c>
       <c r="D14" s="20">
-        <v>19.786479885161501</v>
+        <v>663.00733229972298</v>
       </c>
       <c r="E14" s="20">
-        <v>1.9855376754051399</v>
+        <v>66.531593542098193</v>
       </c>
       <c r="F14" s="20">
-        <v>-27.991566263608998</v>
+        <v>-905.06007616728004</v>
       </c>
       <c r="G14" s="20">
-        <v>35.452200063373603</v>
+        <v>35.132981107721399</v>
       </c>
       <c r="H14" s="21">
-        <v>7.4606338003697603</v>
+        <v>8.1227926531516594</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1745,22 +1745,22 @@
         <v>35</v>
       </c>
       <c r="C15" s="19">
-        <v>85.084169610038899</v>
+        <v>38620.977792726997</v>
       </c>
       <c r="D15" s="20">
-        <v>18.1435975942311</v>
+        <v>8235.6504501614108</v>
       </c>
       <c r="E15" s="20">
-        <v>-0.2013504165019</v>
+        <v>-91.395967073644002</v>
       </c>
       <c r="F15" s="20">
-        <v>-3.0264167877680999</v>
+        <v>-1373.7358674994</v>
       </c>
       <c r="G15" s="20">
-        <v>20.404158445988902</v>
+        <v>20.404158445770701</v>
       </c>
       <c r="H15" s="21">
-        <v>17.377741658181101</v>
+        <v>17.377741658048901</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1771,22 +1771,22 @@
         <v>37</v>
       </c>
       <c r="C16" s="19">
-        <v>102.190075325706</v>
+        <v>2648.4974026904401</v>
       </c>
       <c r="D16" s="20">
-        <v>15.723911103568801</v>
+        <v>406.38130931229102</v>
       </c>
       <c r="E16" s="20">
         <v>0</v>
       </c>
       <c r="F16" s="20">
-        <v>-17.913986429274999</v>
+        <v>-470.25935336896998</v>
       </c>
       <c r="G16" s="20">
-        <v>31.145561331589999</v>
+        <v>31.8833953193183</v>
       </c>
       <c r="H16" s="21">
-        <v>13.2315749030137</v>
+        <v>13.688864979750299</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1797,22 +1797,22 @@
         <v>39</v>
       </c>
       <c r="C17" s="28">
-        <v>87.188705555084596</v>
+        <v>10311.336981876901</v>
       </c>
       <c r="D17" s="29">
-        <v>22.334449552098501</v>
+        <v>2634.8414427187799</v>
       </c>
       <c r="E17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="29">
-        <v>-9.5231551071831007</v>
+        <v>-1145.9867154901001</v>
       </c>
       <c r="G17" s="29">
-        <v>43.924272242806801</v>
+        <v>44.241551944445597</v>
       </c>
       <c r="H17" s="30">
-        <v>34.401117136235598</v>
+        <v>34.529957898005101</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1823,22 +1823,22 @@
         <v>41</v>
       </c>
       <c r="C18" s="28">
-        <v>56.864535633552201</v>
+        <v>6469.7342778828897</v>
       </c>
       <c r="D18" s="29">
-        <v>21.2852499311123</v>
+        <v>2677.3703477378799</v>
       </c>
       <c r="E18" s="29">
-        <v>-0.28546050942110002</v>
+        <v>-36.085493263198998</v>
       </c>
       <c r="F18" s="29">
-        <v>22.135674944756602</v>
+        <v>3019.8362257344302</v>
       </c>
       <c r="G18" s="29">
-        <v>44.134700780052697</v>
+        <v>47.998033015278999</v>
       </c>
       <c r="H18" s="30">
-        <v>66.270375724809298</v>
+        <v>72.891877155626602</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1849,22 +1849,22 @@
         <v>43</v>
       </c>
       <c r="C19" s="15">
-        <v>84.766500947138596</v>
+        <v>48011.120362336602</v>
       </c>
       <c r="D19" s="16">
-        <v>14.7060796980055</v>
+        <v>8206.3941189819598</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <v>0.52741935485598002</v>
+        <v>298.271876737789</v>
       </c>
       <c r="G19" s="16">
-        <v>39.243200995688198</v>
+        <v>39.269095097531803</v>
       </c>
       <c r="H19" s="17">
-        <v>39.7706203499311</v>
+        <v>39.796862463003997</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1875,22 +1875,22 @@
         <v>45</v>
       </c>
       <c r="C20" s="28">
-        <v>79.796473122600801</v>
+        <v>9851.8088981543006</v>
       </c>
       <c r="D20" s="29">
-        <v>4.8404741406034404</v>
+        <v>593.896811894743</v>
       </c>
       <c r="E20" s="29">
-        <v>-7.5546518375600002E-2</v>
+        <v>-9.2690994951598995</v>
       </c>
       <c r="F20" s="29">
-        <v>15.4385992551714</v>
+        <v>1832.9567305969899</v>
       </c>
       <c r="G20" s="29">
-        <v>29.980804075904999</v>
+        <v>29.683470429843101</v>
       </c>
       <c r="H20" s="30">
-        <v>45.419403331076303</v>
+        <v>44.622731725259797</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1901,22 +1901,22 @@
         <v>47</v>
       </c>
       <c r="C21" s="28">
-        <v>56.434182665468697</v>
+        <v>11329.948424464101</v>
       </c>
       <c r="D21" s="29">
-        <v>32.482794423726702</v>
+        <v>6434.8610564414203</v>
       </c>
       <c r="E21" s="29">
         <v>0</v>
       </c>
       <c r="F21" s="29">
-        <v>11.083022910804701</v>
+        <v>2477.4166039145898</v>
       </c>
       <c r="G21" s="29">
-        <v>28.779203517506598</v>
+        <v>27.623341581687601</v>
       </c>
       <c r="H21" s="30">
-        <v>39.8622264292026</v>
+        <v>39.862196110500697</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1927,22 +1927,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="19">
-        <v>96.608251107268998</v>
+        <v>513.39099750513901</v>
       </c>
       <c r="D22" s="20">
-        <v>26.168783954478599</v>
+        <v>136.48487440653199</v>
       </c>
       <c r="E22" s="20">
         <v>0</v>
       </c>
       <c r="F22" s="20">
-        <v>-22.777035061747998</v>
+        <v>-119.03016717382999</v>
       </c>
       <c r="G22" s="20">
-        <v>38.471878019095499</v>
+        <v>37.732589954774802</v>
       </c>
       <c r="H22" s="21">
-        <v>15.6948429573479</v>
+        <v>15.3098471292278</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1953,22 +1953,22 @@
         <v>50</v>
       </c>
       <c r="C23" s="24">
-        <v>81.043488551232997</v>
+        <v>131283.14621544501</v>
       </c>
       <c r="D23" s="25">
-        <v>18.054794118772399</v>
+        <v>29988.8877439547</v>
       </c>
       <c r="E23" s="25">
-        <v>-3.0377607886999999E-2</v>
+        <v>-70.218966289904998</v>
       </c>
       <c r="F23" s="25">
-        <v>0.93209493788166997</v>
+        <v>3614.4092572842701</v>
       </c>
       <c r="G23" s="25">
-        <v>31.929423288733201</v>
+        <v>32.172864225707798</v>
       </c>
       <c r="H23" s="26">
-        <v>32.861518226568798</v>
+        <v>33.430283945454299</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1979,22 +1979,22 @@
         <v>52</v>
       </c>
       <c r="C24" s="19">
-        <v>104.81648961905699</v>
+        <v>1342.71245317377</v>
       </c>
       <c r="D24" s="20">
-        <v>15.7548468590581</v>
+        <v>201.937359755393</v>
       </c>
       <c r="E24" s="20">
-        <v>0.75709689692826998</v>
+        <v>-2.544617251749</v>
       </c>
       <c r="F24" s="20">
-        <v>-21.328433375043002</v>
+        <v>-261.58857233025998</v>
       </c>
       <c r="G24" s="20">
-        <v>31.471823415967499</v>
+        <v>32.612089026367698</v>
       </c>
       <c r="H24" s="21">
-        <v>10.1433900413003</v>
+        <v>12.1837269449377</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2005,22 +2005,22 @@
         <v>54</v>
       </c>
       <c r="C25" s="19">
-        <v>71.621603360504295</v>
+        <v>2424.8079490580699</v>
       </c>
       <c r="D25" s="20">
-        <v>31.1580497798601</v>
+        <v>1034.0258005854</v>
       </c>
       <c r="E25" s="20">
         <v>0</v>
       </c>
       <c r="F25" s="20">
-        <v>-2.7796531403642999</v>
+        <v>-86.530562984282994</v>
       </c>
       <c r="G25" s="20">
-        <v>152.71930199969</v>
+        <v>152.277982797356</v>
       </c>
       <c r="H25" s="21">
-        <v>149.93964885932601</v>
+        <v>149.71206395214099</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2031,22 +2031,22 @@
         <v>56</v>
       </c>
       <c r="C26" s="19">
-        <v>89.822137365874497</v>
+        <v>1975.07857138638</v>
       </c>
       <c r="D26" s="20">
-        <v>7.3620138907578401</v>
+        <v>162.86815871659999</v>
       </c>
       <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="20">
-        <v>2.81584874336771</v>
+        <v>74.007267152807302</v>
       </c>
       <c r="G26" s="20">
-        <v>35.516954642778799</v>
+        <v>35.407609840732199</v>
       </c>
       <c r="H26" s="21">
-        <v>38.332803385965697</v>
+        <v>38.753396744285503</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2057,22 +2057,22 @@
         <v>58</v>
       </c>
       <c r="C27" s="19">
-        <v>81.001596343344104</v>
+        <v>80454.778199505803</v>
       </c>
       <c r="D27" s="20">
-        <v>28.007293948027598</v>
+        <v>27818.224878009802</v>
       </c>
       <c r="E27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="20">
-        <v>-9.0088902913716993</v>
+        <v>-8948.0739015208001</v>
       </c>
       <c r="G27" s="20">
-        <v>16.653365316753401</v>
+        <v>16.653365316764599</v>
       </c>
       <c r="H27" s="21">
-        <v>7.6444750253816904</v>
+        <v>7.6444750253195703</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2083,16 +2083,16 @@
         <v>60</v>
       </c>
       <c r="C28" s="19">
-        <v>89.231342806145904</v>
+        <v>98464.155234212099</v>
       </c>
       <c r="D28" s="20">
-        <v>19.599063563329501</v>
+        <v>21626.988639376901</v>
       </c>
       <c r="E28" s="20">
-        <v>0.70049665231247005</v>
+        <v>772.97739723793597</v>
       </c>
       <c r="F28" s="20">
-        <v>-9.5309030217878998</v>
+        <v>-10517.070405388</v>
       </c>
       <c r="G28" s="20">
         <v>20.1000363525092</v>
@@ -2109,22 +2109,22 @@
         <v>62</v>
       </c>
       <c r="C29" s="19">
-        <v>94.927430806970904</v>
+        <v>13653.911223981901</v>
       </c>
       <c r="D29" s="20">
-        <v>14.8504144237912</v>
+        <v>3371.78318430531</v>
       </c>
       <c r="E29" s="20">
-        <v>0</v>
+        <v>-1174.3342421757</v>
       </c>
       <c r="F29" s="20">
-        <v>-9.7778452307621002</v>
+        <v>-1296.6047143362</v>
       </c>
       <c r="G29" s="20">
-        <v>33.780084422663997</v>
+        <v>31.6827487998561</v>
       </c>
       <c r="H29" s="21">
-        <v>24.0022391924503</v>
+        <v>22.774287791134501</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2135,22 +2135,22 @@
         <v>64</v>
       </c>
       <c r="C30" s="19">
-        <v>105.039345679722</v>
+        <v>10364.521204639699</v>
       </c>
       <c r="D30" s="20">
-        <v>22.5763486109688</v>
+        <v>2250.3046138200398</v>
       </c>
       <c r="E30" s="20">
-        <v>-0.30436988187550001</v>
+        <v>22.810058492249599</v>
       </c>
       <c r="F30" s="20">
-        <v>-27.311324408815</v>
+        <v>-1119.4677812921</v>
       </c>
       <c r="G30" s="20">
-        <v>60.540119099085203</v>
+        <v>53.7998446535629</v>
       </c>
       <c r="H30" s="21">
-        <v>33.228794690269901</v>
+        <v>44.0806968516317</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2161,16 +2161,16 @@
         <v>66</v>
       </c>
       <c r="C31" s="19">
-        <v>89.446271929824604</v>
+        <v>9899.0513408680599</v>
       </c>
       <c r="D31" s="20">
-        <v>26.635599415204702</v>
+        <v>2947.7714433170299</v>
       </c>
       <c r="E31" s="20">
-        <v>-0.34722222222220001</v>
+        <v>-38.427209209621999</v>
       </c>
       <c r="F31" s="20">
-        <v>-15.734649122806999</v>
+        <v>-1741.3593226043999</v>
       </c>
       <c r="G31" s="20">
         <v>34.795321637426902</v>
@@ -2187,22 +2187,22 @@
         <v>68</v>
       </c>
       <c r="C32" s="19">
-        <v>79.166351053638095</v>
+        <v>1153.5444540091601</v>
       </c>
       <c r="D32" s="20">
-        <v>25.6276899799626</v>
+        <v>373.42481056297601</v>
       </c>
       <c r="E32" s="20">
         <v>0</v>
       </c>
       <c r="F32" s="20">
-        <v>-4.7940410336007</v>
+        <v>-69.854671498653005</v>
       </c>
       <c r="G32" s="20">
-        <v>124.97268781696999</v>
+        <v>124.972687817221</v>
       </c>
       <c r="H32" s="21">
-        <v>120.178646785807</v>
+        <v>120.178646783611</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2239,22 +2239,22 @@
         <v>72</v>
       </c>
       <c r="C34" s="15">
-        <v>75.294595172700895</v>
+        <v>3100.1079309710499</v>
       </c>
       <c r="D34" s="16">
-        <v>59.071806435144303</v>
+        <v>3630.3027481338199</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
       </c>
       <c r="F34" s="16">
-        <v>-34.366401607844999</v>
+        <v>-795.32731800526994</v>
       </c>
       <c r="G34" s="16">
-        <v>90.983418805304296</v>
+        <v>84.901174954529907</v>
       </c>
       <c r="H34" s="17">
-        <v>56.617017195582299</v>
+        <v>71.500734394282603</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2291,22 +2291,22 @@
         <v>76</v>
       </c>
       <c r="C36" s="19">
-        <v>66.536645617983993</v>
+        <v>46690.247308031503</v>
       </c>
       <c r="D36" s="20">
-        <v>37.469079447188903</v>
+        <v>29897.797396088699</v>
       </c>
       <c r="E36" s="20">
-        <v>-1.3379442659919001</v>
+        <v>-1701.4370758918001</v>
       </c>
       <c r="F36" s="20">
-        <v>-2.6677807991809002</v>
+        <v>-1727.7513492334001</v>
       </c>
       <c r="G36" s="20">
-        <v>16.186181192609499</v>
+        <v>15.787918046462901</v>
       </c>
       <c r="H36" s="21">
-        <v>13.518400393678199</v>
+        <v>13.4262745802986</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2317,22 +2317,22 @@
         <v>78</v>
       </c>
       <c r="C37" s="19">
-        <v>83.965643221930506</v>
+        <v>36007.758689531998</v>
       </c>
       <c r="D37" s="20">
-        <v>26.669272361195802</v>
+        <v>11442.230988810999</v>
       </c>
       <c r="E37" s="20">
-        <v>0.62341352589554999</v>
+        <v>267.69950661299202</v>
       </c>
       <c r="F37" s="20">
-        <v>-11.258329109022</v>
+        <v>-4776.7686734671997</v>
       </c>
       <c r="G37" s="20">
-        <v>26.216915266416901</v>
+        <v>25.415865150702601</v>
       </c>
       <c r="H37" s="21">
-        <v>14.958586156741699</v>
+        <v>14.291817001364</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2343,22 +2343,22 @@
         <v>79</v>
       </c>
       <c r="C38" s="24">
-        <v>82.499647708812802</v>
+        <v>305530.67455936898</v>
       </c>
       <c r="D38" s="25">
-        <v>26.715726032202099</v>
+        <v>104757.660021483</v>
       </c>
       <c r="E38" s="25">
-        <v>1.0898070450599999E-3</v>
+        <v>-1853.2561821856</v>
       </c>
       <c r="F38" s="25">
-        <v>-9.2164635480600001</v>
+        <v>-31266.390005508001</v>
       </c>
       <c r="G38" s="25">
-        <v>23.286741845528201</v>
+        <v>22.4564096864204</v>
       </c>
       <c r="H38" s="26">
-        <v>14.070278297448599</v>
+        <v>14.1091376130983</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2369,22 +2369,22 @@
         <v>81</v>
       </c>
       <c r="C39" s="28">
-        <v>64.229723488029904</v>
+        <v>104508.70331439799</v>
       </c>
       <c r="D39" s="29">
-        <v>37.249960265883701</v>
+        <v>60609.712054301897</v>
       </c>
       <c r="E39" s="29">
-        <v>8.4917012918689999E-2</v>
+        <v>138.16915950450399</v>
       </c>
       <c r="F39" s="29">
-        <v>-1.5646007668323001</v>
+        <v>-2545.7745801603</v>
       </c>
       <c r="G39" s="29">
-        <v>27.237263336578302</v>
+        <v>27.2372633368179</v>
       </c>
       <c r="H39" s="30">
-        <v>25.672662570063899</v>
+        <v>25.6726625699892</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2395,22 +2395,22 @@
         <v>83</v>
       </c>
       <c r="C40" s="19">
-        <v>96.931839978310293</v>
+        <v>396052.72910159401</v>
       </c>
       <c r="D40" s="20">
-        <v>11.5823278420295</v>
+        <v>48313.833448038597</v>
       </c>
       <c r="E40" s="20">
-        <v>0.22370146450902001</v>
+        <v>15907.6711313463</v>
       </c>
       <c r="F40" s="20">
-        <v>-8.7378692848488004</v>
+        <v>-36973.900153529001</v>
       </c>
       <c r="G40" s="20">
-        <v>19.302884088539699</v>
+        <v>19.295823265447002</v>
       </c>
       <c r="H40" s="21">
-        <v>10.5650148036909</v>
+        <v>10.561150215365201</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2447,22 +2447,22 @@
         <v>87</v>
       </c>
       <c r="C42" s="28">
-        <v>64.327081214338804</v>
+        <v>6362.9491185756197</v>
       </c>
       <c r="D42" s="29">
-        <v>48.701968137046798</v>
+        <v>4817.3823431199298</v>
       </c>
       <c r="E42" s="29">
-        <v>8.4590649628658401</v>
+        <v>836.73312908590196</v>
       </c>
       <c r="F42" s="29">
-        <v>-21.488114314251</v>
+        <v>-2125.5088130326999</v>
       </c>
       <c r="G42" s="29">
-        <v>60.9405678758066</v>
+        <v>60.940567876395697</v>
       </c>
       <c r="H42" s="30">
-        <v>39.452453561832598</v>
+        <v>39.452453561617098</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2473,22 +2473,22 @@
         <v>89</v>
       </c>
       <c r="C43" s="19">
-        <v>78.170507587096296</v>
+        <v>111679.533200916</v>
       </c>
       <c r="D43" s="20">
-        <v>27.012102909775599</v>
+        <v>38591.268457323102</v>
       </c>
       <c r="E43" s="20">
-        <v>3.88169954693908</v>
+        <v>5545.6515098786804</v>
       </c>
       <c r="F43" s="20">
-        <v>-9.0643100438109006</v>
+        <v>-12949.870043422001</v>
       </c>
       <c r="G43" s="20">
-        <v>42.050174667524303</v>
+        <v>42.050174667524402</v>
       </c>
       <c r="H43" s="21">
-        <v>32.985864623713397</v>
+        <v>32.985864623713297</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2499,22 +2499,22 @@
         <v>91</v>
       </c>
       <c r="C44" s="19">
-        <v>95.489095239286797</v>
+        <v>44728.582696504804</v>
       </c>
       <c r="D44" s="20">
-        <v>16.363820587675299</v>
+        <v>6757.2631200134201</v>
       </c>
       <c r="E44" s="20">
-        <v>-1.999999999945</v>
+        <v>-233.44206085038999</v>
       </c>
       <c r="F44" s="20">
-        <v>-9.8529158270170996</v>
+        <v>-4563.9915855905001</v>
       </c>
       <c r="G44" s="20">
-        <v>52.256397213469</v>
+        <v>52.4070068105001</v>
       </c>
       <c r="H44" s="21">
-        <v>42.403481387215798</v>
+        <v>42.631579946625003</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2525,22 +2525,22 @@
         <v>92</v>
       </c>
       <c r="C45" s="24">
-        <v>86.950616532888006</v>
+        <v>663332.49743198894</v>
       </c>
       <c r="D45" s="25">
-        <v>19.8383248100535</v>
+        <v>159089.45942279699</v>
       </c>
       <c r="E45" s="25">
-        <v>0.64893512623057004</v>
+        <v>22194.782868965001</v>
       </c>
       <c r="F45" s="25">
-        <v>-7.4378764691720001</v>
+        <v>-59159.045175733998</v>
       </c>
       <c r="G45" s="25">
-        <v>26.336929557772098</v>
+        <v>26.338241226874299</v>
       </c>
       <c r="H45" s="26">
-        <v>18.899053088713899</v>
+        <v>18.880503459376101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2551,22 +2551,22 @@
         <v>94</v>
       </c>
       <c r="C46" s="19">
-        <v>75.868678460884894</v>
+        <v>13365.242303433701</v>
       </c>
       <c r="D46" s="20">
-        <v>28.447444435904998</v>
+        <v>5035.0219332156803</v>
       </c>
       <c r="E46" s="20">
-        <v>0.40317388226710998</v>
+        <v>71.359286585878095</v>
       </c>
       <c r="F46" s="20">
-        <v>-4.7192967790570002</v>
+        <v>-772.24126557501995</v>
       </c>
       <c r="G46" s="20">
-        <v>28.6900851371065</v>
+        <v>27.846699217430299</v>
       </c>
       <c r="H46" s="21">
-        <v>23.970788358966999</v>
+        <v>23.483601939044799</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2577,22 +2577,22 @@
         <v>96</v>
       </c>
       <c r="C47" s="19">
-        <v>73.803759171666798</v>
+        <v>14888.5072522353</v>
       </c>
       <c r="D47" s="20">
-        <v>24.5355951194691</v>
+        <v>4668.1988639247302</v>
       </c>
       <c r="E47" s="20">
-        <v>1.05711074180654</v>
+        <v>201.85427742847801</v>
       </c>
       <c r="F47" s="20">
-        <v>0.60353496705753995</v>
+        <v>-10.474279114472001</v>
       </c>
       <c r="G47" s="20">
-        <v>30.6987391407201</v>
+        <v>29.510525409991999</v>
       </c>
       <c r="H47" s="21">
-        <v>31.302274107891002</v>
+        <v>29.4574859455408</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2603,22 +2603,22 @@
         <v>98</v>
       </c>
       <c r="C48" s="28">
-        <v>83.715150876110698</v>
+        <v>1768.66170950112</v>
       </c>
       <c r="D48" s="29">
-        <v>42.254125830341799</v>
+        <v>892.59144761468394</v>
       </c>
       <c r="E48" s="29">
         <v>0</v>
       </c>
       <c r="F48" s="29">
-        <v>-25.969276706452</v>
+        <v>-548.90532290032002</v>
       </c>
       <c r="G48" s="29">
-        <v>54.956187338794599</v>
+        <v>54.960674107472499</v>
       </c>
       <c r="H48" s="30">
-        <v>28.986910634882801</v>
+        <v>28.9751184139811</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2629,22 +2629,22 @@
         <v>100</v>
       </c>
       <c r="C49" s="19">
-        <v>75.400858193386199</v>
+        <v>53989.053094952302</v>
       </c>
       <c r="D49" s="20">
-        <v>24.803199726868002</v>
+        <v>17777.3354708279</v>
       </c>
       <c r="E49" s="20">
-        <v>-0.28971199999719999</v>
+        <v>-94.019486478857999</v>
       </c>
       <c r="F49" s="20">
-        <v>8.5654079742950001E-2</v>
+        <v>39.662854479825398</v>
       </c>
       <c r="G49" s="20">
-        <v>22.500897508788299</v>
+        <v>22.577556072879201</v>
       </c>
       <c r="H49" s="21">
-        <v>22.5865515885931</v>
+        <v>22.632864580266698</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2655,22 +2655,22 @@
         <v>102</v>
       </c>
       <c r="C50" s="19">
-        <v>109.85043047569199</v>
+        <v>2148.54933413974</v>
       </c>
       <c r="D50" s="20">
-        <v>20.6952352239561</v>
+        <v>421.565496988863</v>
       </c>
       <c r="E50" s="20">
         <v>0</v>
       </c>
       <c r="F50" s="20">
-        <v>-30.545665699648001</v>
+        <v>-535.67339839215003</v>
       </c>
       <c r="G50" s="20">
-        <v>39.206936325555397</v>
+        <v>35.509076170239602</v>
       </c>
       <c r="H50" s="21">
-        <v>8.6612706253355203</v>
+        <v>9.17883191879206</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -2681,22 +2681,22 @@
         <v>104</v>
       </c>
       <c r="C51" s="15">
-        <v>84.045209613291703</v>
+        <v>63374.760152752999</v>
       </c>
       <c r="D51" s="16">
-        <v>16.847211123593699</v>
+        <v>13335.7393782778</v>
       </c>
       <c r="E51" s="16">
-        <v>1.7054132410403999</v>
+        <v>1349.9531968665401</v>
       </c>
       <c r="F51" s="16">
-        <v>-2.5978339779258</v>
+        <v>1096.5025705744199</v>
       </c>
       <c r="G51" s="16">
-        <v>32.803474659023401</v>
+        <v>28.5223939091041</v>
       </c>
       <c r="H51" s="17">
-        <v>30.205640681750999</v>
+        <v>29.9076197132548</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2707,22 +2707,22 @@
         <v>106</v>
       </c>
       <c r="C52" s="19">
-        <v>72.065546331167795</v>
+        <v>11746.1141399014</v>
       </c>
       <c r="D52" s="20">
-        <v>17.997534811148501</v>
+        <v>2899.9546030792799</v>
       </c>
       <c r="E52" s="20">
         <v>0</v>
       </c>
       <c r="F52" s="20">
-        <v>9.9369188576837395</v>
+        <v>1509.2462415361299</v>
       </c>
       <c r="G52" s="20">
-        <v>53.643135410174203</v>
+        <v>54.2029999741818</v>
       </c>
       <c r="H52" s="21">
-        <v>63.5800542684946</v>
+        <v>63.545103442808603</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2733,22 +2733,22 @@
         <v>108</v>
       </c>
       <c r="C53" s="19">
-        <v>92.463429274433594</v>
+        <v>1597.42443058913</v>
       </c>
       <c r="D53" s="20">
-        <v>21.4921793224919</v>
+        <v>310.09060528469399</v>
       </c>
       <c r="E53" s="20">
-        <v>0.15612998051525001</v>
+        <v>2.69396400068345</v>
       </c>
       <c r="F53" s="20">
-        <v>-14.111738577441001</v>
+        <v>-184.74666921747999</v>
       </c>
       <c r="G53" s="20">
-        <v>32.097174811924802</v>
+        <v>30.38155514312</v>
       </c>
       <c r="H53" s="21">
-        <v>17.985436234483998</v>
+        <v>19.6744729927305</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2785,22 +2785,22 @@
         <v>112</v>
       </c>
       <c r="C55" s="19">
-        <v>91.651869284110305</v>
+        <v>17327.629949893198</v>
       </c>
       <c r="D55" s="20">
-        <v>20.669964702705698</v>
+        <v>3892.2581853264501</v>
       </c>
       <c r="E55" s="20">
-        <v>1.0661032541229001</v>
+        <v>316.77709860656199</v>
       </c>
       <c r="F55" s="20">
-        <v>-13.387937240938999</v>
+        <v>-2346.3233261895998</v>
       </c>
       <c r="G55" s="20">
-        <v>41.517180882978501</v>
+        <v>40.288602948572098</v>
       </c>
       <c r="H55" s="21">
-        <v>28.1292436430052</v>
+        <v>28.062018672572599</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -2811,22 +2811,22 @@
         <v>114</v>
       </c>
       <c r="C56" s="19">
-        <v>85.085256103892107</v>
+        <v>12714.781189801201</v>
       </c>
       <c r="D56" s="20">
-        <v>31.581518042458399</v>
+        <v>4724.2190841935599</v>
       </c>
       <c r="E56" s="20">
-        <v>0.16310136750328999</v>
+        <v>24.398022665732899</v>
       </c>
       <c r="F56" s="20">
-        <v>-16.829875513853999</v>
+        <v>-2540.6694032152</v>
       </c>
       <c r="G56" s="20">
-        <v>30.880488947072799</v>
+        <v>32.522383279706901</v>
       </c>
       <c r="H56" s="21">
-        <v>14.050613433219</v>
+        <v>15.496881969881301</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2837,22 +2837,22 @@
         <v>116</v>
       </c>
       <c r="C57" s="28">
-        <v>69.619379119156093</v>
+        <v>340825.48765182402</v>
       </c>
       <c r="D57" s="29">
-        <v>33.107365461329302</v>
+        <v>113031.822886954</v>
       </c>
       <c r="E57" s="29">
-        <v>0.72733570770806999</v>
+        <v>2911.64958587212</v>
       </c>
       <c r="F57" s="29">
-        <v>-3.4540802881934001</v>
+        <v>-15344.676447316</v>
       </c>
       <c r="G57" s="29">
-        <v>14.9718618792353</v>
+        <v>14.9758353570595</v>
       </c>
       <c r="H57" s="30">
-        <v>11.5177815908715</v>
+        <v>11.499661296247799</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2863,22 +2863,22 @@
         <v>118</v>
       </c>
       <c r="C58" s="19">
-        <v>83.122321028998201</v>
+        <v>22974.746504327199</v>
       </c>
       <c r="D58" s="20">
-        <v>33.921912772220097</v>
+        <v>9375.9093491158092</v>
       </c>
       <c r="E58" s="20">
-        <v>3.96040371238719</v>
+        <v>1069.78709081374</v>
       </c>
       <c r="F58" s="20">
-        <v>-21.004637513605001</v>
+        <v>-5780.7593793095002</v>
       </c>
       <c r="G58" s="20">
-        <v>44.165799941443098</v>
+        <v>44.288297329656601</v>
       </c>
       <c r="H58" s="21">
-        <v>23.1611624284904</v>
+        <v>23.373588354331201</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -2889,22 +2889,22 @@
         <v>120</v>
       </c>
       <c r="C59" s="19">
-        <v>113.542455084068</v>
+        <v>4439.4042246696999</v>
       </c>
       <c r="D59" s="20">
-        <v>10.767579287492699</v>
+        <v>446.62525513018801</v>
       </c>
       <c r="E59" s="20">
-        <v>0.39928721149764002</v>
+        <v>16.5619168379379</v>
       </c>
       <c r="F59" s="20">
-        <v>-24.709321583057999</v>
+        <v>-754.72080098807999</v>
       </c>
       <c r="G59" s="20">
-        <v>46.3917642682039</v>
+        <v>45.059492421605</v>
       </c>
       <c r="H59" s="21">
-        <v>21.682442683793301</v>
+        <v>26.864112802491</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2915,22 +2915,22 @@
         <v>122</v>
       </c>
       <c r="C60" s="15">
-        <v>83.779781871922793</v>
+        <v>7066.4000456222902</v>
       </c>
       <c r="D60" s="16">
-        <v>25.3389981021827</v>
+        <v>2038.9023040392501</v>
       </c>
       <c r="E60" s="16">
-        <v>0.85608126971503995</v>
+        <v>72.170986526397797</v>
       </c>
       <c r="F60" s="16">
-        <v>-9.9748612438205004</v>
+        <v>-747.08371323484005</v>
       </c>
       <c r="G60" s="16">
-        <v>36.916850805307803</v>
+        <v>31.454935848949798</v>
       </c>
       <c r="H60" s="17">
-        <v>26.941989560417198</v>
+        <v>22.593142424826301</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2941,22 +2941,22 @@
         <v>123</v>
       </c>
       <c r="C61" s="24">
-        <v>74.072524526311099</v>
+        <v>568226.76198364305</v>
       </c>
       <c r="D61" s="25">
-        <v>29.3205665229336</v>
+        <v>178850.23486397299</v>
       </c>
       <c r="E61" s="25">
-        <v>0.83417177538692</v>
+        <v>5943.1859397252101</v>
       </c>
       <c r="F61" s="25">
-        <v>-4.2272628246316</v>
+        <v>-26920.862338862</v>
       </c>
       <c r="G61" s="25">
-        <v>21.8874775148551</v>
+        <v>21.317062387474301</v>
       </c>
       <c r="H61" s="26">
-        <v>17.660214690263</v>
+        <v>17.595658025320699</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2967,22 +2967,22 @@
         <v>124</v>
       </c>
       <c r="C62" s="34">
-        <v>80.768482970301307</v>
+        <v>2124502.1176139298</v>
       </c>
       <c r="D62" s="35">
-        <v>22.797560323583699</v>
+        <v>569207.07622613001</v>
       </c>
       <c r="E62" s="35">
-        <v>0.42342596758053003</v>
+        <v>25545.479604821601</v>
       </c>
       <c r="F62" s="35">
-        <v>-3.9894692614655001</v>
+        <v>-83165.137368110998</v>
       </c>
       <c r="G62" s="35">
-        <v>25.517253580540899</v>
+        <v>25.268464176673898</v>
       </c>
       <c r="H62" s="36">
-        <v>21.527784319147099</v>
+        <v>21.553631926280602</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2993,22 +2993,22 @@
         <v>125</v>
       </c>
       <c r="C63" s="38">
-        <v>71.123466322438205</v>
+        <v>65825313.164823301</v>
       </c>
       <c r="D63" s="39">
-        <v>26.974957810636401</v>
+        <v>24170587.218255401</v>
       </c>
       <c r="E63" s="39">
-        <v>1.0690782101673899</v>
+        <v>797964.05274088099</v>
       </c>
       <c r="F63" s="39">
-        <v>0.83249765675794996</v>
+        <v>806147.74685472494</v>
       </c>
       <c r="G63" s="39">
-        <v>27.624658333597701</v>
+        <v>27.562163134908101</v>
       </c>
       <c r="H63" s="40">
-        <v>28.462833021901702</v>
+        <v>28.4073047537401</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3019,22 +3019,22 @@
         <v>126</v>
       </c>
       <c r="C64" s="34">
-        <v>80.484705126342604</v>
+        <v>3990823.07438449</v>
       </c>
       <c r="D64" s="35">
-        <v>20.071539564604102</v>
+        <v>1001033.78299388</v>
       </c>
       <c r="E64" s="35">
-        <v>0.41400438171677001</v>
+        <v>31162.6752155104</v>
       </c>
       <c r="F64" s="35">
-        <v>-0.97024907266339999</v>
+        <v>-50977.249152463002</v>
       </c>
       <c r="G64" s="35">
-        <v>28.487105955158899</v>
+        <v>28.4771141350998</v>
       </c>
       <c r="H64" s="36">
-        <v>27.516856881707199</v>
+        <v>27.3401300107057</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3045,22 +3045,22 @@
         <v>127</v>
       </c>
       <c r="C65" s="43">
-        <v>62.980749186379299</v>
+        <v>15021911.755406501</v>
       </c>
       <c r="D65" s="44">
-        <v>35.212263308317397</v>
+        <v>9504594.5066745002</v>
       </c>
       <c r="E65" s="44">
-        <v>1.6370053330530101</v>
+        <v>397265.540651466</v>
       </c>
       <c r="F65" s="44">
-        <v>0.16998217225034001</v>
+        <v>270583.72264392499</v>
       </c>
       <c r="G65" s="44">
-        <v>22.089461884831099</v>
+        <v>22.082742848418999</v>
       </c>
       <c r="H65" s="45">
-        <v>22.2575335019778</v>
+        <v>22.222095302723901</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3071,22 +3071,22 @@
         <v>128</v>
       </c>
       <c r="C66" s="47">
-        <v>71.598571760514602</v>
+        <v>67949815.282437205</v>
       </c>
       <c r="D66" s="48">
-        <v>26.769182710855301</v>
+        <v>24739794.294481501</v>
       </c>
       <c r="E66" s="48">
-        <v>1.03727392171889</v>
+        <v>823509.53234570206</v>
       </c>
       <c r="F66" s="48">
-        <v>0.59497160691132001</v>
+        <v>722982.609486614</v>
       </c>
       <c r="G66" s="48">
-        <v>27.520019113716899</v>
+        <v>27.448766477243002</v>
       </c>
       <c r="H66" s="49">
-        <v>28.118486220443899</v>
+        <v>28.0684705799817</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3097,22 +3097,22 @@
         <v>129</v>
       </c>
       <c r="C67" s="51">
-        <v>92.112668014293604</v>
+        <v>778668.46201294695</v>
       </c>
       <c r="D67" s="52">
-        <v>16.232334694349198</v>
+        <v>142929.08605732999</v>
       </c>
       <c r="E67" s="52">
-        <v>0.15748260265469999</v>
+        <v>15921.541530493399</v>
       </c>
       <c r="F67" s="52">
-        <v>-8.5024853112974998</v>
+        <v>-70837.441169369005</v>
       </c>
       <c r="G67" s="52">
-        <v>24.180681615763302</v>
+        <v>24.066702014755698</v>
       </c>
       <c r="H67" s="53">
-        <v>15.6781963044756</v>
+        <v>15.7717542325768</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3123,22 +3123,22 @@
         <v>130</v>
       </c>
       <c r="C68" s="43">
-        <v>83.944061783518194</v>
+        <v>1143984.3277499201</v>
       </c>
       <c r="D68" s="44">
-        <v>21.9508546338771</v>
+        <v>280877.44485594198</v>
       </c>
       <c r="E68" s="44">
-        <v>0.80977047176274997</v>
+        <v>27997.255031934001</v>
       </c>
       <c r="F68" s="44">
-        <v>-6.7046868891580997</v>
+        <v>-84875.585548556002</v>
       </c>
       <c r="G68" s="44">
-        <v>24.386580957940499</v>
+        <v>24.122050418389701</v>
       </c>
       <c r="H68" s="45">
-        <v>17.681894068833198</v>
+        <v>17.660726414050298</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3149,22 +3149,22 @@
         <v>131</v>
       </c>
       <c r="C69" s="43">
-        <v>81.633004499559505</v>
+        <v>197687.65158142199</v>
       </c>
       <c r="D69" s="44">
-        <v>27.248767514114</v>
+        <v>70208.098548027207</v>
       </c>
       <c r="E69" s="44">
-        <v>4.2616888028109999E-2</v>
+        <v>-632.65578770836999</v>
       </c>
       <c r="F69" s="44">
-        <v>-8.9243889017014997</v>
+        <v>-20463.337144866</v>
       </c>
       <c r="G69" s="44">
-        <v>22.433206692315199</v>
+        <v>21.465679008418402</v>
       </c>
       <c r="H69" s="45">
-        <v>13.508817790539201</v>
+        <v>13.1152398733021</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3175,22 +3175,22 @@
         <v>132</v>
       </c>
       <c r="C70" s="43">
-        <v>72.107548820063897</v>
+        <v>182516.51585113601</v>
       </c>
       <c r="D70" s="44">
-        <v>20.984627611819299</v>
+        <v>51563.116314678598</v>
       </c>
       <c r="E70" s="44">
-        <v>-3.6537198279600003E-2</v>
+        <v>-108.64617549953</v>
       </c>
       <c r="F70" s="44">
-        <v>6.9443607663963798</v>
+        <v>16702.838535237101</v>
       </c>
       <c r="G70" s="44">
-        <v>29.557737577707101</v>
+        <v>29.7576408733287</v>
       </c>
       <c r="H70" s="45">
-        <v>36.5020983443098</v>
+        <v>36.901781767310602</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3201,22 +3201,22 @@
         <v>133</v>
       </c>
       <c r="C71" s="43">
-        <v>74.072524526311099</v>
+        <v>568226.76198364305</v>
       </c>
       <c r="D71" s="44">
-        <v>29.3205665229336</v>
+        <v>178850.23486397299</v>
       </c>
       <c r="E71" s="44">
-        <v>0.83417177538692</v>
+        <v>5943.1859397252101</v>
       </c>
       <c r="F71" s="44">
-        <v>-4.2272628246316</v>
+        <v>-26920.862338862</v>
       </c>
       <c r="G71" s="44">
-        <v>21.8874775148551</v>
+        <v>21.317062387474301</v>
       </c>
       <c r="H71" s="45">
-        <v>17.660214690263</v>
+        <v>17.595658025320699</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3227,22 +3227,22 @@
         <v>134</v>
       </c>
       <c r="C72" s="43">
-        <v>84.500001186273906</v>
+        <v>222426.68657466499</v>
       </c>
       <c r="D72" s="44">
-        <v>24.955017096818501</v>
+        <v>65714.6412136336</v>
       </c>
       <c r="E72" s="44">
-        <v>0.36496687315982002</v>
+        <v>1040.6769038509301</v>
       </c>
       <c r="F72" s="44">
-        <v>-9.8199851562521996</v>
+        <v>-25049.763594213</v>
       </c>
       <c r="G72" s="44">
-        <v>21.997981272450801</v>
+        <v>21.2582472280072</v>
       </c>
       <c r="H72" s="45">
-        <v>12.1779961160608</v>
+        <v>11.841974151489101</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3253,22 +3253,22 @@
         <v>135</v>
       </c>
       <c r="C73" s="43">
-        <v>77.433560206364504</v>
+        <v>577345.09442965395</v>
       </c>
       <c r="D73" s="44">
-        <v>19.467110021350098</v>
+        <v>140822.47565743601</v>
       </c>
       <c r="E73" s="44">
-        <v>-0.24843886376820001</v>
+        <v>-3524.5199322200001</v>
       </c>
       <c r="F73" s="44">
-        <v>3.3477686360535799</v>
+        <v>26389.755682755698</v>
       </c>
       <c r="G73" s="44">
-        <v>29.196830155988501</v>
+        <v>29.037867473819301</v>
       </c>
       <c r="H73" s="45">
-        <v>32.544598792157302</v>
+        <v>32.701171287942799</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3279,22 +3279,22 @@
         <v>136</v>
       </c>
       <c r="C74" s="43">
-        <v>72.905763436666206</v>
+        <v>267279.76833039499</v>
       </c>
       <c r="D74" s="44">
-        <v>31.455564441326299</v>
+        <v>110775.625974758</v>
       </c>
       <c r="E74" s="44">
-        <v>1.24729306732915</v>
+        <v>6287.1117376187003</v>
       </c>
       <c r="F74" s="44">
-        <v>-5.6086209453217002</v>
+        <v>-22185.145022205001</v>
       </c>
       <c r="G74" s="44">
-        <v>36.234727741302599</v>
+        <v>36.360388130471598</v>
       </c>
       <c r="H74" s="45">
-        <v>30.626106796255101</v>
+        <v>30.719871814261001</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3305,22 +3305,22 @@
         <v>137</v>
       </c>
       <c r="C75" s="47">
-        <v>61.803835730585703</v>
+        <v>59038.220697827703</v>
       </c>
       <c r="D75" s="48">
-        <v>28.8813524839594</v>
+        <v>27826.2060450893</v>
       </c>
       <c r="E75" s="48">
-        <v>2.7501799539600001E-3</v>
+        <v>2.69396400068345</v>
       </c>
       <c r="F75" s="48">
-        <v>9.3120616055009808</v>
+        <v>8068.8653964325504</v>
       </c>
       <c r="G75" s="48">
-        <v>32.558117048742197</v>
+        <v>32.605729943935799</v>
       </c>
       <c r="H75" s="49">
-        <v>41.870178654792703</v>
+        <v>42.090521740483602</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3331,22 +3331,22 @@
         <v>138</v>
       </c>
       <c r="C76" s="51">
-        <v>68.801891013755295</v>
+        <v>2245201.1626782599</v>
       </c>
       <c r="D76" s="52">
-        <v>27.285206642672101</v>
+        <v>884080.70167587895</v>
       </c>
       <c r="E76" s="52">
-        <v>1.62772528397591</v>
+        <v>54480.235558580498</v>
       </c>
       <c r="F76" s="52">
-        <v>2.28517705959676</v>
+        <v>147248.07531621799</v>
       </c>
       <c r="G76" s="52">
-        <v>45.968983273214498</v>
+        <v>45.6647622748945</v>
       </c>
       <c r="H76" s="53">
-        <v>48.546679841190503</v>
+        <v>48.609978739905998</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3357,22 +3357,22 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>79.940952774901206</v>
+        <v>2633938.9705257099</v>
       </c>
       <c r="D77" s="44">
-        <v>19.269475793874602</v>
+        <v>639659.93663653999</v>
       </c>
       <c r="E77" s="44">
-        <v>0.34787496865494999</v>
+        <v>20228.842123311701</v>
       </c>
       <c r="F77" s="44">
-        <v>0.44169646256926998</v>
+        <v>13744.2244463876</v>
       </c>
       <c r="G77" s="44">
-        <v>21.272342578883499</v>
+        <v>21.007044521775001</v>
       </c>
       <c r="H77" s="45">
-        <v>21.714039041461</v>
+        <v>21.2287419232707</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3383,22 +3383,22 @@
         <v>140</v>
       </c>
       <c r="C78" s="43">
-        <v>73.542994575581503</v>
+        <v>12548987.7595411</v>
       </c>
       <c r="D78" s="44">
-        <v>21.814119099871601</v>
+        <v>3794445.0603533699</v>
       </c>
       <c r="E78" s="44">
-        <v>1.2548695913364001</v>
+        <v>210608.595024843</v>
       </c>
       <c r="F78" s="44">
-        <v>3.3880167332105202</v>
+        <v>635049.80060542701</v>
       </c>
       <c r="G78" s="44">
-        <v>47.1195729545775</v>
+        <v>47.084285236322401</v>
       </c>
       <c r="H78" s="45">
-        <v>50.507595674067801</v>
+        <v>50.375181345654902</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3409,22 +3409,22 @@
         <v>141</v>
       </c>
       <c r="C79" s="47">
-        <v>76.979114778374395</v>
+        <v>45108004.293125503</v>
       </c>
       <c r="D79" s="48">
-        <v>22.468175307297599</v>
+        <v>13019973.0204695</v>
       </c>
       <c r="E79" s="48">
-        <v>0.61380452334795998</v>
+        <v>269391.99416869401</v>
       </c>
       <c r="F79" s="48">
-        <v>-6.1094609019899999E-2</v>
+        <v>-7175.3169393564003</v>
       </c>
       <c r="G79" s="48">
-        <v>30.0634661991479</v>
+        <v>30.024863308703001</v>
       </c>
       <c r="H79" s="49">
-        <v>30.002376581522299</v>
+        <v>30.0327530239962</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -3435,22 +3435,22 @@
         <v>142</v>
       </c>
       <c r="C80" s="51">
-        <v>66.647844802607395</v>
+        <v>532762.94867150101</v>
       </c>
       <c r="D80" s="52">
-        <v>32.878449973961899</v>
+        <v>210318.93551819099</v>
       </c>
       <c r="E80" s="52">
-        <v>0.53828688370376998</v>
+        <v>3841.1972817041701</v>
       </c>
       <c r="F80" s="52">
-        <v>-6.4581660272999997E-2</v>
+        <v>449.14628190427902</v>
       </c>
       <c r="G80" s="52">
-        <v>21.057437099463002</v>
+        <v>21.083032958387001</v>
       </c>
       <c r="H80" s="53">
-        <v>20.992855439278301</v>
+        <v>21.085707000435601</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3461,22 +3461,22 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>65.482130715136194</v>
+        <v>2736240.3916404801</v>
       </c>
       <c r="D81" s="44">
-        <v>21.973225975740899</v>
+        <v>907100.45444803801</v>
       </c>
       <c r="E81" s="44">
-        <v>3.6658295307350199</v>
+        <v>135113.66446830699</v>
       </c>
       <c r="F81" s="44">
-        <v>8.8788137783879097</v>
+        <v>415324.88561055902</v>
       </c>
       <c r="G81" s="44">
-        <v>27.822795384483602</v>
+        <v>27.773589389000701</v>
       </c>
       <c r="H81" s="45">
-        <v>36.7120121752844</v>
+        <v>36.039677953150303</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3487,22 +3487,22 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>86.580036241481196</v>
+        <v>1591739.1689424301</v>
       </c>
       <c r="D82" s="44">
-        <v>18.6486240978758</v>
+        <v>358888.14070793899</v>
       </c>
       <c r="E82" s="44">
-        <v>0.37615329301021</v>
+        <v>21704.282323117401</v>
       </c>
       <c r="F82" s="44">
-        <v>-5.6048136323672004</v>
+        <v>-83614.283650015001</v>
       </c>
       <c r="G82" s="44">
-        <v>27.3527556840342</v>
+        <v>26.982230949258099</v>
       </c>
       <c r="H82" s="45">
-        <v>21.747942051731901</v>
+        <v>21.745228478261598</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3513,22 +3513,22 @@
         <v>145</v>
       </c>
       <c r="C83" s="47">
-        <v>71.590985226048005</v>
+        <v>63089072.773182802</v>
       </c>
       <c r="D83" s="48">
-        <v>27.389470320860699</v>
+        <v>23263486.763807401</v>
       </c>
       <c r="E83" s="48">
-        <v>0.85387556759325001</v>
+        <v>662850.38827257406</v>
       </c>
       <c r="F83" s="48">
-        <v>0.16566888549806</v>
+        <v>390822.86124416703</v>
       </c>
       <c r="G83" s="48">
-        <v>27.608088221736701</v>
+        <v>27.5443445514179</v>
       </c>
       <c r="H83" s="49">
-        <v>27.7729579040363</v>
+        <v>27.7640635457578</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3539,22 +3539,22 @@
         <v>146</v>
       </c>
       <c r="C84" s="51">
-        <v>85.438779791853307</v>
+        <v>309920.37848032999</v>
       </c>
       <c r="D84" s="52">
-        <v>24.66795277124</v>
+        <v>89635.255751331599</v>
       </c>
       <c r="E84" s="52">
-        <v>0.23214475492823</v>
+        <v>-216.4472469678</v>
       </c>
       <c r="F84" s="52">
-        <v>-10.338877318022</v>
+        <v>-34458.341256442996</v>
       </c>
       <c r="G84" s="52">
-        <v>31.859948696651401</v>
+        <v>31.154768942322502</v>
       </c>
       <c r="H84" s="53">
-        <v>21.5210713785584</v>
+        <v>21.3237471609674</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3565,22 +3565,22 @@
         <v>147</v>
       </c>
       <c r="C85" s="43">
-        <v>132.27722723433001</v>
+        <v>24813.783229583099</v>
       </c>
       <c r="D85" s="44">
-        <v>5.8231203334480597</v>
+        <v>998.863693266837</v>
       </c>
       <c r="E85" s="44">
         <v>0</v>
       </c>
       <c r="F85" s="44">
-        <v>-38.100347567778002</v>
+        <v>-8856.1257668039998</v>
       </c>
       <c r="G85" s="44">
-        <v>46.350038746307099</v>
+        <v>64.308605564439006</v>
       </c>
       <c r="H85" s="45">
-        <v>8.2496911785294404</v>
+        <v>12.080169759101199</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -3591,22 +3591,22 @@
         <v>148</v>
       </c>
       <c r="C86" s="43">
-        <v>79.760724371167896</v>
+        <v>1414670.0189186099</v>
       </c>
       <c r="D86" s="44">
-        <v>24.146881277649602</v>
+        <v>408372.70589577197</v>
       </c>
       <c r="E86" s="44">
-        <v>0.59200863099820999</v>
+        <v>26622.647965394299</v>
       </c>
       <c r="F86" s="44">
-        <v>-4.4996142798156997</v>
+        <v>-74622.572463388002</v>
       </c>
       <c r="G86" s="44">
-        <v>23.760236905124799</v>
+        <v>23.5838440365211</v>
       </c>
       <c r="H86" s="45">
-        <v>19.2606226254156</v>
+        <v>19.265399886877798</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3617,22 +3617,22 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>72.895335980721796</v>
+        <v>5023733.8522028197</v>
       </c>
       <c r="D87" s="44">
-        <v>27.529320163971001</v>
+        <v>1880753.89568551</v>
       </c>
       <c r="E87" s="44">
-        <v>2.7465443816850099</v>
+        <v>150961.606778838</v>
       </c>
       <c r="F87" s="44">
-        <v>-3.1712005263777998</v>
+        <v>-225718.24646833001</v>
       </c>
       <c r="G87" s="44">
-        <v>24.665950552487701</v>
+        <v>24.576995078639701</v>
       </c>
       <c r="H87" s="45">
-        <v>21.3083480645024</v>
+        <v>21.1837456835692</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3643,22 +3643,22 @@
         <v>150</v>
       </c>
       <c r="C88" s="43">
-        <v>81.243778298577794</v>
+        <v>398758.17576097598</v>
       </c>
       <c r="D88" s="44">
-        <v>14.380144917107501</v>
+        <v>70825.689768462893</v>
       </c>
       <c r="E88" s="44">
-        <v>-0.2189251026107</v>
+        <v>-860.72111360491999</v>
       </c>
       <c r="F88" s="44">
-        <v>4.5950018869255302</v>
+        <v>25985.631023218899</v>
       </c>
       <c r="G88" s="44">
-        <v>27.756786726987901</v>
+        <v>27.596230765186998</v>
       </c>
       <c r="H88" s="45">
-        <v>32.351788613944301</v>
+        <v>32.686004420580801</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -3669,22 +3669,22 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>63.641969426298303</v>
+        <v>16212120.457752001</v>
       </c>
       <c r="D89" s="44">
-        <v>32.968135817616002</v>
+        <v>9336379.7034219503</v>
       </c>
       <c r="E89" s="44">
-        <v>1.14847561466238</v>
+        <v>393936.798702056</v>
       </c>
       <c r="F89" s="44">
-        <v>2.2414191414233802</v>
+        <v>613862.81814527302</v>
       </c>
       <c r="G89" s="44">
-        <v>24.251431798153298</v>
+        <v>24.1999049894611</v>
       </c>
       <c r="H89" s="45">
-        <v>26.495069388170801</v>
+        <v>26.439260555695501</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3695,22 +3695,22 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>76.048241658023002</v>
+        <v>44511617.0068032</v>
       </c>
       <c r="D90" s="48">
-        <v>22.3591181824908</v>
+        <v>12949040.293938899</v>
       </c>
       <c r="E90" s="48">
-        <v>0.45299581481672002</v>
+        <v>254776.220457991</v>
       </c>
       <c r="F90" s="48">
-        <v>1.1396443446695299</v>
+        <v>425900.50603799499</v>
       </c>
       <c r="G90" s="48">
-        <v>31.1338845969914</v>
+        <v>31.048978841606701</v>
       </c>
       <c r="H90" s="49">
-        <v>32.2735341379122</v>
+        <v>32.258642093416903</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3721,22 +3721,22 @@
         <v>153</v>
       </c>
       <c r="C91" s="51">
-        <v>77.199178923133303</v>
+        <v>460071.018163239</v>
       </c>
       <c r="D91" s="52">
-        <v>27.1706690101134</v>
+        <v>165490.80775541399</v>
       </c>
       <c r="E91" s="52">
-        <v>0.32536474019351003</v>
+        <v>235.07174538651199</v>
       </c>
       <c r="F91" s="52">
-        <v>-4.6952126734402997</v>
+        <v>-27854.962360525999</v>
       </c>
       <c r="G91" s="52">
-        <v>30.872183580335701</v>
+        <v>30.331811154509101</v>
       </c>
       <c r="H91" s="53">
-        <v>26.1769709070463</v>
+        <v>26.018937060795601</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3747,22 +3747,22 @@
         <v>154</v>
       </c>
       <c r="C92" s="43">
-        <v>81.157689698222697</v>
+        <v>478030.65637077799</v>
       </c>
       <c r="D92" s="44">
-        <v>29.8526090220738</v>
+        <v>174191.81726511699</v>
       </c>
       <c r="E92" s="44">
-        <v>0.61142398582193003</v>
+        <v>2882.8066089346098</v>
       </c>
       <c r="F92" s="44">
-        <v>-11.621722706118</v>
+        <v>-65484.577400563998</v>
       </c>
       <c r="G92" s="44">
-        <v>26.2418185098443</v>
+        <v>26.678694060095101</v>
       </c>
       <c r="H92" s="45">
-        <v>14.620095803893101</v>
+        <v>14.850623938484301</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -3773,22 +3773,22 @@
         <v>155</v>
       </c>
       <c r="C93" s="43">
-        <v>99.550958126388196</v>
+        <v>16740.2552494181</v>
       </c>
       <c r="D93" s="44">
-        <v>24.2247320141241</v>
+        <v>4164.8337114443202</v>
       </c>
       <c r="E93" s="44">
-        <v>-0.12627680594140001</v>
+        <v>22.959405241184001</v>
       </c>
       <c r="F93" s="44">
-        <v>-23.649413334571001</v>
+        <v>-2303.5931844125998</v>
       </c>
       <c r="G93" s="44">
-        <v>59.033213183472299</v>
+        <v>54.575917160921101</v>
       </c>
       <c r="H93" s="45">
-        <v>35.383799849346197</v>
+        <v>42.575424196840899</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -3799,22 +3799,22 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>58.244933773137397</v>
+        <v>348235.72841183201</v>
       </c>
       <c r="D94" s="44">
-        <v>25.177997142498999</v>
+        <v>148347.90994850601</v>
       </c>
       <c r="E94" s="44">
-        <v>1.09433484892219</v>
+        <v>8376.3123888677292</v>
       </c>
       <c r="F94" s="44">
-        <v>15.4827342354414</v>
+        <v>135926.77627540499</v>
       </c>
       <c r="G94" s="44">
-        <v>109.546423782402</v>
+        <v>106.920069458821</v>
       </c>
       <c r="H94" s="45">
-        <v>125.029158017798</v>
+        <v>125.093833656521</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3825,22 +3825,22 @@
         <v>157</v>
       </c>
       <c r="C95" s="43">
-        <v>82.1384260210843</v>
+        <v>238692.36177231601</v>
       </c>
       <c r="D95" s="44">
-        <v>26.2839785789958</v>
+        <v>76263.534752241496</v>
       </c>
       <c r="E95" s="44">
-        <v>0.35000098607439001</v>
+        <v>1225.89612717302</v>
       </c>
       <c r="F95" s="44">
-        <v>-8.7724055861545001</v>
+        <v>-25754.891952046</v>
       </c>
       <c r="G95" s="44">
-        <v>29.354097353375501</v>
+        <v>28.618466041903002</v>
       </c>
       <c r="H95" s="45">
-        <v>20.581691767252298</v>
+        <v>20.175645702809302</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3851,22 +3851,22 @@
         <v>158</v>
       </c>
       <c r="C96" s="47">
-        <v>75.645134043611193</v>
+        <v>372513.734285046</v>
       </c>
       <c r="D96" s="48">
-        <v>24.915776165386301</v>
+        <v>119261.15335286201</v>
       </c>
       <c r="E96" s="48">
-        <v>3.0485893418530998</v>
+        <v>16512.729382532099</v>
       </c>
       <c r="F96" s="48">
-        <v>-3.6094995508505998</v>
+        <v>-8607.6122088072007</v>
       </c>
       <c r="G96" s="48">
-        <v>34.610729702062898</v>
+        <v>34.671861784469101</v>
       </c>
       <c r="H96" s="49">
-        <v>31.0012301514721</v>
+        <v>30.833721527613299</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -3877,22 +3877,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>75.021135432299005</v>
+        <v>950997.63410818297</v>
       </c>
       <c r="D97" s="52">
-        <v>28.0045302663443</v>
+        <v>311517.20919499302</v>
       </c>
       <c r="E97" s="52">
-        <v>0.37888368745056</v>
+        <v>2558.5826757991099</v>
       </c>
       <c r="F97" s="52">
-        <v>-3.4045493860937999</v>
+        <v>-39116.133807819002</v>
       </c>
       <c r="G97" s="52">
-        <v>23.2901001615949</v>
+        <v>23.047698166664102</v>
       </c>
       <c r="H97" s="53">
-        <v>19.8855507754858</v>
+        <v>19.8567645216473</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3903,22 +3903,22 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>78.479140494098999</v>
+        <v>1120206.8921779201</v>
       </c>
       <c r="D98" s="48">
-        <v>22.696447100812598</v>
+        <v>313620.41918343102</v>
       </c>
       <c r="E98" s="48">
-        <v>4.7775565682604002</v>
+        <v>48208.0009514669</v>
       </c>
       <c r="F98" s="48">
-        <v>-5.9531441631720003</v>
+        <v>-104611.2047297</v>
       </c>
       <c r="G98" s="48">
-        <v>22.7800910747135</v>
+        <v>22.991370562598199</v>
       </c>
       <c r="H98" s="49">
-        <v>16.8269469112421</v>
+        <v>16.557290138638798</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4086,11 +4086,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CA398F35-2ACE-4C37-B522-DCBB49A24190}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5CCDB31C-5A2D-4FBC-8A22-EAC4F67E6534}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3468764A-67C3-4408-93FD-B9FD66AEDA2D}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0A704CA4-D3C1-4E29-89D1-19966F37B1BA}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7F0BBF01-BC05-4E1C-8F7F-D58E09B5374A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{44C2EF33-43A1-45F5-8B06-6815CA95F177}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{11858BD7-1D16-4EA2-ACBF-88600EF53F57}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E3C0D1B3-1E30-4A73-9D8B-70752201D2DB}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D2205892-6E79-400E-ACF9-59A3AB6188A4}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8074BDFD-EE6A-43D3-9DE7-C6748BA8F3C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA898A00-DE99-489B-BC25-F6BA97D8E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E90BA5-F802-4276-8495-2FA97C6E4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5573F623-1485-45B2-9867-A12CA3DEEBDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90078796-26B7-4807-A23E-C41C54BAF59C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab15'!$A$2:$H$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab15'!$A$1:$F$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,22 +48,22 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Final consumption expenditure (millions of USD), 2021</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation (millions of USD), 2021</t>
-  </si>
-  <si>
-    <t>Changes in inventories (millions of USD), 2021</t>
-  </si>
-  <si>
-    <t>Foreign balance (millions of USD), 2021</t>
-  </si>
-  <si>
-    <t>Imports of goods and services as a % of GDP, 2021</t>
-  </si>
-  <si>
-    <t>Exports of goods and services as a % of GDP, 2021</t>
+    <t>Final consumption expenditure as a % of GDP, 2022</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation as a % of GDP, 2022</t>
+  </si>
+  <si>
+    <t>Changes in inventories as a % of GDP, 2022</t>
+  </si>
+  <si>
+    <t>Foreign balance as a % of GDP, 2022</t>
+  </si>
+  <si>
+    <t>Imports of goods and services as a % of GDP, 2022</t>
+  </si>
+  <si>
+    <t>Exports of goods and services as a % of GDP, 2022</t>
   </si>
   <si>
     <t>AGO</t>
@@ -255,7 +255,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -387,7 +387,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DF0324-C35C-4482-BA48-6BA75B2E3565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15623C88-9543-4A61-8FD0-99247DC37A47}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1399,7 +1399,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1433,22 +1433,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="11">
-        <v>41334.318294823301</v>
+        <v>57.894664792409401</v>
       </c>
       <c r="D3" s="12">
-        <v>18626.457127406899</v>
+        <v>23.674975717290799</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>14829.7886005573</v>
+        <v>18.4303594902998</v>
       </c>
       <c r="G3" s="12">
-        <v>25.197311690123001</v>
+        <v>21.536147214719801</v>
       </c>
       <c r="H3" s="13">
-        <v>45.025733623187897</v>
+        <v>39.966506705019597</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1459,22 +1459,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="15">
-        <v>14055.185127603199</v>
+        <v>73.333467595063297</v>
       </c>
       <c r="D4" s="16">
-        <v>4948.9307063625702</v>
+        <v>26.033213252589299</v>
       </c>
       <c r="E4" s="16">
-        <v>181.81482031786601</v>
+        <v>1.1923606579595101</v>
       </c>
       <c r="F4" s="16">
-        <v>-925.06745188805996</v>
+        <v>-0.55904150561209998</v>
       </c>
       <c r="G4" s="16">
-        <v>48.101489130452102</v>
+        <v>49.548141220593102</v>
       </c>
       <c r="H4" s="17">
-        <v>43.035641795443802</v>
+        <v>48.989099714980703</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1485,22 +1485,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="19">
-        <v>4037.0010084374499</v>
+        <v>85.8238856553658</v>
       </c>
       <c r="D5" s="20">
-        <v>667.57819106206705</v>
+        <v>16.976083588407899</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
       </c>
       <c r="F5" s="20">
-        <v>-564.02860428957001</v>
+        <v>-2.7999692437736998</v>
       </c>
       <c r="G5" s="20">
-        <v>63.316419805022399</v>
+        <v>49.675227806886099</v>
       </c>
       <c r="H5" s="21">
-        <v>49.6943521277895</v>
+        <v>46.875258563112403</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1511,22 +1511,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="19">
-        <v>3149.0171751948001</v>
+        <v>124.21954738108001</v>
       </c>
       <c r="D6" s="20">
-        <v>728.13960909571006</v>
+        <v>22.592777244764001</v>
       </c>
       <c r="E6" s="20">
-        <v>-127.35195554034</v>
+        <v>-4.4263785049347</v>
       </c>
       <c r="F6" s="20">
-        <v>-1200.0722384633</v>
+        <v>-42.385946120908997</v>
       </c>
       <c r="G6" s="20">
-        <v>90.533062262737204</v>
+        <v>86.335715055677895</v>
       </c>
       <c r="H6" s="21">
-        <v>43.466470141081103</v>
+        <v>43.949768934768599</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1537,22 +1537,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="19">
-        <v>14579.1708671124</v>
+        <v>103.483921208951</v>
       </c>
       <c r="D7" s="20">
-        <v>1089.0537583817199</v>
+        <v>10.0483472676767</v>
       </c>
       <c r="E7" s="20">
-        <v>27.626838196597198</v>
+        <v>0.22852197626800999</v>
       </c>
       <c r="F7" s="20">
-        <v>-3232.4939317246999</v>
+        <v>-13.760790452896</v>
       </c>
       <c r="G7" s="20">
-        <v>36.0928944299216</v>
+        <v>23.345706392107701</v>
       </c>
       <c r="H7" s="21">
-        <v>10.1569143103271</v>
+        <v>9.5849159392118999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1563,22 +1563,22 @@
         <v>20</v>
       </c>
       <c r="C8" s="19">
-        <v>13824.425265409</v>
+        <v>90.442281255047106</v>
       </c>
       <c r="D8" s="20">
-        <v>7860.5819903765396</v>
+        <v>61.835289908751101</v>
       </c>
       <c r="E8" s="20">
         <v>0</v>
       </c>
       <c r="F8" s="20">
-        <v>-5908.2410448331002</v>
+        <v>-52.277571163798001</v>
       </c>
       <c r="G8" s="20">
-        <v>68.833085146965701</v>
+        <v>92.663040287120793</v>
       </c>
       <c r="H8" s="21">
-        <v>31.3840859931876</v>
+        <v>40.385469123322302</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1589,22 +1589,22 @@
         <v>22</v>
       </c>
       <c r="C9" s="19">
-        <v>12495.068270498499</v>
+        <v>103.521045414131</v>
       </c>
       <c r="D9" s="20">
-        <v>1754.89258873832</v>
+        <v>15.3698897212135</v>
       </c>
       <c r="E9" s="20">
-        <v>176.95202641041499</v>
+        <v>-4.4925216121100002E-2</v>
       </c>
       <c r="F9" s="20">
-        <v>-2125.3110862302001</v>
+        <v>-18.846009919223</v>
       </c>
       <c r="G9" s="20">
-        <v>51.624463876161997</v>
+        <v>59.546886636820098</v>
       </c>
       <c r="H9" s="21">
-        <v>34.3477618589421</v>
+        <v>40.700876717596998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1615,22 +1615,22 @@
         <v>24</v>
       </c>
       <c r="C10" s="19">
-        <v>340661.64383561601</v>
+        <v>82.873524529089906</v>
       </c>
       <c r="D10" s="20">
-        <v>54842.803991205801</v>
+        <v>14.0906823125662</v>
       </c>
       <c r="E10" s="20">
-        <v>-1233.0289193302999</v>
+        <v>1.05228720002739</v>
       </c>
       <c r="F10" s="20">
-        <v>25845.104008117702</v>
+        <v>1.98350595831657</v>
       </c>
       <c r="G10" s="20">
-        <v>24.9521385391939</v>
+        <v>31.538327185416001</v>
       </c>
       <c r="H10" s="21">
-        <v>31.104027978998001</v>
+        <v>33.5218331437326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1641,22 +1641,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="15">
-        <v>11993.2075787865</v>
+        <v>60.636808333242001</v>
       </c>
       <c r="D11" s="16">
-        <v>6002.39621129221</v>
+        <v>30.793014576725401</v>
       </c>
       <c r="E11" s="16">
-        <v>304.97313455265299</v>
+        <v>1.2393000000000001</v>
       </c>
       <c r="F11" s="16">
-        <v>3847.0726434624899</v>
+        <v>7.3308770900325504</v>
       </c>
       <c r="G11" s="16">
-        <v>35.058773865585998</v>
+        <v>34.379934406209998</v>
       </c>
       <c r="H11" s="17">
-        <v>52.428890868902698</v>
+        <v>41.710811496242599</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1693,22 +1693,22 @@
         <v>31</v>
       </c>
       <c r="C13" s="24">
-        <v>456129.03742348199</v>
+        <v>78.515947042072995</v>
       </c>
       <c r="D13" s="25">
-        <v>96520.834173921801</v>
+        <v>18.570516036243198</v>
       </c>
       <c r="E13" s="25">
-        <v>-669.01405539309997</v>
+        <v>0.77798626708628005</v>
       </c>
       <c r="F13" s="25">
-        <v>30566.750894708599</v>
+        <v>2.1355506545975498</v>
       </c>
       <c r="G13" s="25">
-        <v>29.1209938134939</v>
+        <v>33.365558355731899</v>
       </c>
       <c r="H13" s="26">
-        <v>34.719888820910001</v>
+        <v>35.501109010329401</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1719,22 +1719,22 @@
         <v>33</v>
       </c>
       <c r="C14" s="19">
-        <v>3526.3310778072901</v>
+        <v>104.487448782833</v>
       </c>
       <c r="D14" s="20">
-        <v>663.00733229972298</v>
+        <v>22.180935929230699</v>
       </c>
       <c r="E14" s="20">
-        <v>66.531593542098193</v>
+        <v>1.34101426206065</v>
       </c>
       <c r="F14" s="20">
-        <v>-905.06007616728004</v>
+        <v>-28.009398974124</v>
       </c>
       <c r="G14" s="20">
-        <v>35.132981107721399</v>
+        <v>35.183770712936401</v>
       </c>
       <c r="H14" s="21">
-        <v>8.1227926531516594</v>
+        <v>7.1743717388125301</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1745,22 +1745,22 @@
         <v>35</v>
       </c>
       <c r="C15" s="19">
-        <v>38620.977792726997</v>
+        <v>84.199178368668001</v>
       </c>
       <c r="D15" s="20">
-        <v>8235.6504501614108</v>
+        <v>17.429249153932499</v>
       </c>
       <c r="E15" s="20">
-        <v>-91.395967073644002</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
-        <v>-1373.7358674994</v>
+        <v>-1.6284275226005001</v>
       </c>
       <c r="G15" s="20">
-        <v>20.404158445770701</v>
+        <v>21.875893950448301</v>
       </c>
       <c r="H15" s="21">
-        <v>17.377741658048901</v>
+        <v>20.247466427847801</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1771,22 +1771,22 @@
         <v>37</v>
       </c>
       <c r="C16" s="19">
-        <v>2648.4974026904401</v>
+        <v>105.498995377748</v>
       </c>
       <c r="D16" s="20">
-        <v>406.38130931229102</v>
+        <v>15.0583490493235</v>
       </c>
       <c r="E16" s="20">
         <v>0</v>
       </c>
       <c r="F16" s="20">
-        <v>-470.25935336896998</v>
+        <v>-20.557344427071001</v>
       </c>
       <c r="G16" s="20">
-        <v>31.8833953193183</v>
+        <v>34.266763825751298</v>
       </c>
       <c r="H16" s="21">
-        <v>13.688864979750299</v>
+        <v>13.70941939868</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1797,22 +1797,22 @@
         <v>39</v>
       </c>
       <c r="C17" s="28">
-        <v>10311.336981876901</v>
+        <v>76.954785705166103</v>
       </c>
       <c r="D17" s="29">
-        <v>2634.8414427187799</v>
+        <v>21.806986222920401</v>
       </c>
       <c r="E17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="29">
-        <v>-1145.9867154901001</v>
+        <v>1.2382280719135701</v>
       </c>
       <c r="G17" s="29">
-        <v>44.241551944445597</v>
+        <v>45.204020587870602</v>
       </c>
       <c r="H17" s="30">
-        <v>34.529957898005101</v>
+        <v>46.442248659784198</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1823,22 +1823,22 @@
         <v>41</v>
       </c>
       <c r="C18" s="28">
-        <v>6469.7342778828897</v>
+        <v>40.015500485081503</v>
       </c>
       <c r="D18" s="29">
-        <v>2677.3703477378799</v>
+        <v>26.760840480187699</v>
       </c>
       <c r="E18" s="29">
-        <v>-36.085493263198998</v>
+        <v>0.12822677287851</v>
       </c>
       <c r="F18" s="29">
-        <v>3019.8362257344302</v>
+        <v>33.095432261852302</v>
       </c>
       <c r="G18" s="29">
-        <v>47.998033015278999</v>
+        <v>56.7031764279659</v>
       </c>
       <c r="H18" s="30">
-        <v>72.891877155626602</v>
+        <v>89.798608689818295</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1849,22 +1849,22 @@
         <v>43</v>
       </c>
       <c r="C19" s="15">
-        <v>48011.120362336602</v>
+        <v>88.752766229450103</v>
       </c>
       <c r="D19" s="16">
-        <v>8206.3941189819598</v>
+        <v>13.135830712140599</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <v>298.271876737789</v>
+        <v>-1.8885969415907</v>
       </c>
       <c r="G19" s="16">
-        <v>39.269095097531803</v>
+        <v>44.242446023107803</v>
       </c>
       <c r="H19" s="17">
-        <v>39.796862463003997</v>
+        <v>42.353849081517197</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1875,22 +1875,22 @@
         <v>45</v>
       </c>
       <c r="C20" s="28">
-        <v>9851.8088981543006</v>
+        <v>69.515391087494606</v>
       </c>
       <c r="D20" s="29">
-        <v>593.896811894743</v>
+        <v>9.9959951970643104</v>
       </c>
       <c r="E20" s="29">
-        <v>-9.2690994951598995</v>
+        <v>0.12055955052901</v>
       </c>
       <c r="F20" s="29">
-        <v>1832.9567305969899</v>
+        <v>20.368054164912099</v>
       </c>
       <c r="G20" s="29">
-        <v>29.683470429843101</v>
+        <v>29.230598915864899</v>
       </c>
       <c r="H20" s="30">
-        <v>44.622731725259797</v>
+        <v>49.598653080776998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1901,22 +1901,22 @@
         <v>47</v>
       </c>
       <c r="C21" s="28">
-        <v>11329.948424464101</v>
+        <v>54.324362614656401</v>
       </c>
       <c r="D21" s="29">
-        <v>6434.8610564414203</v>
+        <v>29.524700991488601</v>
       </c>
       <c r="E21" s="29">
         <v>0</v>
       </c>
       <c r="F21" s="29">
-        <v>2477.4166039145898</v>
+        <v>16.150936393855002</v>
       </c>
       <c r="G21" s="29">
-        <v>27.623341581687601</v>
+        <v>27.5852387706671</v>
       </c>
       <c r="H21" s="30">
-        <v>39.862196110500697</v>
+        <v>43.736175164522102</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1927,22 +1927,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="19">
-        <v>513.39099750513901</v>
+        <v>97.150059578474995</v>
       </c>
       <c r="D22" s="20">
-        <v>136.48487440653199</v>
+        <v>26.967728099950701</v>
       </c>
       <c r="E22" s="20">
         <v>0</v>
       </c>
       <c r="F22" s="20">
-        <v>-119.03016717382999</v>
+        <v>-24.117787678426001</v>
       </c>
       <c r="G22" s="20">
-        <v>37.732589954774802</v>
+        <v>42.542054485561998</v>
       </c>
       <c r="H22" s="21">
-        <v>15.3098471292278</v>
+        <v>18.424266807136501</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1953,22 +1953,22 @@
         <v>50</v>
       </c>
       <c r="C23" s="24">
-        <v>131283.14621544501</v>
+        <v>79.371370463253598</v>
       </c>
       <c r="D23" s="25">
-        <v>29988.8877439547</v>
+        <v>17.674406309791699</v>
       </c>
       <c r="E23" s="25">
-        <v>-70.218966289904998</v>
+        <v>5.2952901520820002E-2</v>
       </c>
       <c r="F23" s="25">
-        <v>3614.4092572842701</v>
+        <v>2.90127032543392</v>
       </c>
       <c r="G23" s="25">
-        <v>32.172864225707798</v>
+        <v>34.988977959857401</v>
       </c>
       <c r="H23" s="26">
-        <v>33.430283945454299</v>
+        <v>37.890248285291399</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1979,22 +1979,22 @@
         <v>52</v>
       </c>
       <c r="C24" s="19">
-        <v>1342.71245317377</v>
+        <v>111.08581296106701</v>
       </c>
       <c r="D24" s="20">
-        <v>201.937359755393</v>
+        <v>16.752739106037801</v>
       </c>
       <c r="E24" s="20">
-        <v>-2.544617251749</v>
+        <v>-5.2559079577559</v>
       </c>
       <c r="F24" s="20">
-        <v>-261.58857233025998</v>
+        <v>-22.582644109349001</v>
       </c>
       <c r="G24" s="20">
-        <v>32.612089026367698</v>
+        <v>35.678902366057102</v>
       </c>
       <c r="H24" s="21">
-        <v>12.1837269449377</v>
+        <v>13.096258256708101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2005,22 +2005,22 @@
         <v>54</v>
       </c>
       <c r="C25" s="19">
-        <v>2424.8079490580699</v>
+        <v>81.357173676088493</v>
       </c>
       <c r="D25" s="20">
-        <v>1034.0258005854</v>
+        <v>25.4169103272326</v>
       </c>
       <c r="E25" s="20">
         <v>0</v>
       </c>
       <c r="F25" s="20">
-        <v>-86.530562984282994</v>
+        <v>-6.7740840033209997</v>
       </c>
       <c r="G25" s="20">
-        <v>152.277982797356</v>
+        <v>140.62879035120301</v>
       </c>
       <c r="H25" s="21">
-        <v>149.71206395214099</v>
+        <v>133.854706347882</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2031,22 +2031,22 @@
         <v>56</v>
       </c>
       <c r="C26" s="19">
-        <v>1975.07857138638</v>
+        <v>90.528933683935705</v>
       </c>
       <c r="D26" s="20">
-        <v>162.86815871659999</v>
+        <v>7.3630897802873996</v>
       </c>
       <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="20">
-        <v>74.007267152807302</v>
+        <v>2.1079765357769098</v>
       </c>
       <c r="G26" s="20">
-        <v>35.407609840732199</v>
+        <v>37.348850723843903</v>
       </c>
       <c r="H26" s="21">
-        <v>38.753396744285503</v>
+        <v>39.456827259620802</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2057,22 +2057,22 @@
         <v>58</v>
       </c>
       <c r="C27" s="19">
-        <v>80454.778199505803</v>
+        <v>84.736498603275805</v>
       </c>
       <c r="D27" s="20">
-        <v>27818.224878009802</v>
+        <v>25.3400272438416</v>
       </c>
       <c r="E27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="20">
-        <v>-8948.0739015208001</v>
+        <v>-10.076525847117001</v>
       </c>
       <c r="G27" s="20">
-        <v>16.653365316764599</v>
+        <v>18.321753230119</v>
       </c>
       <c r="H27" s="21">
-        <v>7.6444750253195703</v>
+        <v>8.2452273830017209</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2083,22 +2083,22 @@
         <v>60</v>
       </c>
       <c r="C28" s="19">
-        <v>98464.155234212099</v>
+        <v>89.209323104136203</v>
       </c>
       <c r="D28" s="20">
-        <v>21626.988639376901</v>
+        <v>19.5403329915912</v>
       </c>
       <c r="E28" s="20">
-        <v>772.97739723793597</v>
+        <v>0</v>
       </c>
       <c r="F28" s="20">
-        <v>-10517.070405388</v>
+        <v>-8.7496560957273992</v>
       </c>
       <c r="G28" s="20">
-        <v>20.1000363525092</v>
+        <v>20.924198726245901</v>
       </c>
       <c r="H28" s="21">
-        <v>10.569133330721399</v>
+        <v>12.1745426305185</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2109,22 +2109,22 @@
         <v>62</v>
       </c>
       <c r="C29" s="19">
-        <v>13653.911223981901</v>
+        <v>84.199764957058207</v>
       </c>
       <c r="D29" s="20">
-        <v>3371.78318430531</v>
+        <v>23.3614664142607</v>
       </c>
       <c r="E29" s="20">
-        <v>-1174.3342421757</v>
+        <v>0</v>
       </c>
       <c r="F29" s="20">
-        <v>-1296.6047143362</v>
+        <v>-7.5612313713189003</v>
       </c>
       <c r="G29" s="20">
-        <v>31.6827487998561</v>
+        <v>37.782150116192199</v>
       </c>
       <c r="H29" s="21">
-        <v>22.774287791134501</v>
+        <v>30.220918744873401</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2135,22 +2135,22 @@
         <v>64</v>
       </c>
       <c r="C30" s="19">
-        <v>10364.521204639699</v>
+        <v>89.0102773119429</v>
       </c>
       <c r="D30" s="20">
-        <v>2250.3046138200398</v>
+        <v>20.062376644216101</v>
       </c>
       <c r="E30" s="20">
-        <v>22.810058492249599</v>
+        <v>0.21708808891928</v>
       </c>
       <c r="F30" s="20">
-        <v>-1119.4677812921</v>
+        <v>-9.2897420450783006</v>
       </c>
       <c r="G30" s="20">
-        <v>53.7998446535629</v>
+        <v>66.094820459105193</v>
       </c>
       <c r="H30" s="21">
-        <v>44.0806968516317</v>
+        <v>56.805078414026802</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2161,22 +2161,22 @@
         <v>66</v>
       </c>
       <c r="C31" s="19">
-        <v>9899.0513408680599</v>
+        <v>92.448104725251397</v>
       </c>
       <c r="D31" s="20">
-        <v>2947.7714433170299</v>
+        <v>24.877048260964798</v>
       </c>
       <c r="E31" s="20">
-        <v>-38.427209209621999</v>
+        <v>-0.35880803076779999</v>
       </c>
       <c r="F31" s="20">
-        <v>-1741.3593226043999</v>
+        <v>-16.966344955448001</v>
       </c>
       <c r="G31" s="20">
-        <v>34.795321637426902</v>
+        <v>40.555133986805899</v>
       </c>
       <c r="H31" s="21">
-        <v>19.060672514619899</v>
+        <v>23.5887890313574</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2187,22 +2187,22 @@
         <v>68</v>
       </c>
       <c r="C32" s="19">
-        <v>1153.5444540091601</v>
+        <v>80.857138781581597</v>
       </c>
       <c r="D32" s="20">
-        <v>373.42481056297601</v>
+        <v>22.9727081604826</v>
       </c>
       <c r="E32" s="20">
         <v>0</v>
       </c>
       <c r="F32" s="20">
-        <v>-69.854671498653005</v>
+        <v>-3.8298469420641998</v>
       </c>
       <c r="G32" s="20">
-        <v>124.972687817221</v>
+        <v>118.61515441213901</v>
       </c>
       <c r="H32" s="21">
-        <v>120.178646783611</v>
+        <v>114.785307470075</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2235,26 +2235,26 @@
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="15">
-        <v>3100.1079309710499</v>
-      </c>
-      <c r="D34" s="16">
-        <v>3630.3027481338199</v>
-      </c>
-      <c r="E34" s="16">
+      <c r="C34" s="28">
+        <v>52.125956384294199</v>
+      </c>
+      <c r="D34" s="29">
+        <v>48.512855116893803</v>
+      </c>
+      <c r="E34" s="29">
         <v>0</v>
       </c>
-      <c r="F34" s="16">
-        <v>-795.32731800526994</v>
-      </c>
-      <c r="G34" s="16">
-        <v>84.901174954529907</v>
-      </c>
-      <c r="H34" s="17">
-        <v>71.500734394282603</v>
+      <c r="F34" s="29">
+        <v>-0.63881150118789998</v>
+      </c>
+      <c r="G34" s="29">
+        <v>63.790629960616997</v>
+      </c>
+      <c r="H34" s="30">
+        <v>63.151818459429002</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2291,22 +2291,22 @@
         <v>76</v>
       </c>
       <c r="C36" s="19">
-        <v>46690.247308031503</v>
+        <v>65.833151729488506</v>
       </c>
       <c r="D36" s="20">
-        <v>29897.797396088699</v>
+        <v>40.074054658154601</v>
       </c>
       <c r="E36" s="20">
-        <v>-1701.4370758918001</v>
+        <v>-2.1229784293626</v>
       </c>
       <c r="F36" s="20">
-        <v>-1727.7513492334001</v>
+        <v>-3.7842279582804998</v>
       </c>
       <c r="G36" s="20">
-        <v>15.787918046462901</v>
+        <v>19.301509587756701</v>
       </c>
       <c r="H36" s="21">
-        <v>13.4262745802986</v>
+        <v>15.517281629476299</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2317,22 +2317,22 @@
         <v>78</v>
       </c>
       <c r="C37" s="19">
-        <v>36007.758689531998</v>
+        <v>83.590966668700304</v>
       </c>
       <c r="D37" s="20">
-        <v>11442.230988810999</v>
+        <v>27.365595465953</v>
       </c>
       <c r="E37" s="20">
-        <v>267.69950661299202</v>
+        <v>0.62341352589627996</v>
       </c>
       <c r="F37" s="20">
-        <v>-4776.7686734671997</v>
+        <v>-11.57997566055</v>
       </c>
       <c r="G37" s="20">
-        <v>25.415865150702601</v>
+        <v>24.928536137317199</v>
       </c>
       <c r="H37" s="21">
-        <v>14.291817001364</v>
+        <v>13.3485604767676</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2343,22 +2343,22 @@
         <v>79</v>
       </c>
       <c r="C38" s="24">
-        <v>305530.67455936898</v>
+        <v>82.652137629487797</v>
       </c>
       <c r="D38" s="25">
-        <v>104757.660021483</v>
+        <v>26.387131099080499</v>
       </c>
       <c r="E38" s="25">
-        <v>-1853.2561821856</v>
+        <v>-0.32965259378829997</v>
       </c>
       <c r="F38" s="25">
-        <v>-31266.390005508001</v>
+        <v>-8.7096161347799992</v>
       </c>
       <c r="G38" s="25">
-        <v>22.4564096864204</v>
+        <v>24.400196271866601</v>
       </c>
       <c r="H38" s="26">
-        <v>14.1091376130983</v>
+        <v>15.6905801370866</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2369,22 +2369,22 @@
         <v>81</v>
       </c>
       <c r="C39" s="28">
-        <v>104508.70331439799</v>
+        <v>60.707152148003502</v>
       </c>
       <c r="D39" s="29">
-        <v>60609.712054301897</v>
+        <v>31.373896726340899</v>
       </c>
       <c r="E39" s="29">
-        <v>138.16915950450399</v>
+        <v>7.4251149074249997E-2</v>
       </c>
       <c r="F39" s="29">
-        <v>-2545.7745801603</v>
+        <v>7.8446999765814596</v>
       </c>
       <c r="G39" s="29">
-        <v>27.2372633368179</v>
+        <v>24.693330426515701</v>
       </c>
       <c r="H39" s="30">
-        <v>25.6726625699892</v>
+        <v>32.538030403097103</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2395,22 +2395,22 @@
         <v>83</v>
       </c>
       <c r="C40" s="19">
-        <v>396052.72910159401</v>
+        <v>89.790245457443405</v>
       </c>
       <c r="D40" s="20">
-        <v>48313.833448038597</v>
+        <v>12.82575568543</v>
       </c>
       <c r="E40" s="20">
-        <v>15907.6711313463</v>
+        <v>4.1930520927019801</v>
       </c>
       <c r="F40" s="20">
-        <v>-36973.900153529001</v>
+        <v>-6.8090532355753997</v>
       </c>
       <c r="G40" s="20">
-        <v>19.295823265447002</v>
+        <v>21.8960790564233</v>
       </c>
       <c r="H40" s="21">
-        <v>10.561150215365201</v>
+        <v>15.0870258208479</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2447,22 +2447,22 @@
         <v>87</v>
       </c>
       <c r="C42" s="28">
-        <v>6362.9491185756197</v>
+        <v>67.100317700588406</v>
       </c>
       <c r="D42" s="29">
-        <v>4817.3823431199298</v>
+        <v>64.268903888994004</v>
       </c>
       <c r="E42" s="29">
-        <v>836.73312908590196</v>
+        <v>-25.473996270741999</v>
       </c>
       <c r="F42" s="29">
-        <v>-2125.5088130326999</v>
+        <v>-5.8952253188402004</v>
       </c>
       <c r="G42" s="29">
-        <v>60.940567876395697</v>
+        <v>46.764703804230201</v>
       </c>
       <c r="H42" s="30">
-        <v>39.452453561617098</v>
+        <v>40.869478485390097</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2473,22 +2473,22 @@
         <v>89</v>
       </c>
       <c r="C43" s="19">
-        <v>111679.533200916</v>
+        <v>83.189734772187805</v>
       </c>
       <c r="D43" s="20">
-        <v>38591.268457323102</v>
+        <v>24.8032635262818</v>
       </c>
       <c r="E43" s="20">
-        <v>5545.6515098786804</v>
+        <v>2.9658322694382302</v>
       </c>
       <c r="F43" s="20">
-        <v>-12949.870043422001</v>
+        <v>-10.958830567908</v>
       </c>
       <c r="G43" s="20">
-        <v>42.050174667524402</v>
+        <v>53.323120104413903</v>
       </c>
       <c r="H43" s="21">
-        <v>32.985864623713297</v>
+        <v>42.364289536506099</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2499,22 +2499,22 @@
         <v>91</v>
       </c>
       <c r="C44" s="19">
-        <v>44728.582696504804</v>
+        <v>96.841868398543795</v>
       </c>
       <c r="D44" s="20">
-        <v>6757.2631200134201</v>
+        <v>15.074851526959</v>
       </c>
       <c r="E44" s="20">
-        <v>-233.44206085038999</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="20">
-        <v>-4563.9915855905001</v>
+        <v>-12.216719925503</v>
       </c>
       <c r="G44" s="20">
-        <v>52.4070068105001</v>
+        <v>62.364962946550897</v>
       </c>
       <c r="H44" s="21">
-        <v>42.631579946625003</v>
+        <v>50.148243021048103</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2525,22 +2525,22 @@
         <v>92</v>
       </c>
       <c r="C45" s="24">
-        <v>663332.49743198894</v>
+        <v>83.036270674562303</v>
       </c>
       <c r="D45" s="25">
-        <v>159089.45942279699</v>
+        <v>18.908521247481101</v>
       </c>
       <c r="E45" s="25">
-        <v>22194.782868965001</v>
+        <v>2.6428651237546998</v>
       </c>
       <c r="F45" s="25">
-        <v>-59159.045175733998</v>
+        <v>-4.5876570457980996</v>
       </c>
       <c r="G45" s="25">
-        <v>26.338241226874299</v>
+        <v>29.033212993168199</v>
       </c>
       <c r="H45" s="26">
-        <v>18.880503459376101</v>
+        <v>24.445555947370199</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2551,22 +2551,22 @@
         <v>94</v>
       </c>
       <c r="C46" s="19">
-        <v>13365.242303433701</v>
+        <v>77.854215153474897</v>
       </c>
       <c r="D46" s="20">
-        <v>5035.0219332156803</v>
+        <v>28.007183195674902</v>
       </c>
       <c r="E46" s="20">
-        <v>71.359286585878095</v>
+        <v>0.36491442803682</v>
       </c>
       <c r="F46" s="20">
-        <v>-772.24126557501995</v>
+        <v>-6.2263127771865001</v>
       </c>
       <c r="G46" s="20">
-        <v>27.846699217430299</v>
+        <v>31.318608537195299</v>
       </c>
       <c r="H46" s="21">
-        <v>23.483601939044799</v>
+        <v>25.092295760008799</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2577,22 +2577,22 @@
         <v>96</v>
       </c>
       <c r="C47" s="19">
-        <v>14888.5072522353</v>
+        <v>81.061630776645998</v>
       </c>
       <c r="D47" s="20">
-        <v>4668.1988639247302</v>
+        <v>22.526265608585099</v>
       </c>
       <c r="E47" s="20">
-        <v>201.85427742847801</v>
+        <v>0.91856659439509003</v>
       </c>
       <c r="F47" s="20">
-        <v>-10.474279114472001</v>
+        <v>-4.5064629796261002</v>
       </c>
       <c r="G47" s="20">
-        <v>29.510525409991999</v>
+        <v>32.898284464632901</v>
       </c>
       <c r="H47" s="21">
-        <v>29.4574859455408</v>
+        <v>28.391821485006801</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2603,22 +2603,22 @@
         <v>98</v>
       </c>
       <c r="C48" s="28">
-        <v>1768.66170950112</v>
+        <v>78.709480369150796</v>
       </c>
       <c r="D48" s="29">
-        <v>892.59144761468394</v>
+        <v>42.883821791033498</v>
       </c>
       <c r="E48" s="29">
         <v>0</v>
       </c>
       <c r="F48" s="29">
-        <v>-548.90532290032002</v>
+        <v>-21.593302160183999</v>
       </c>
       <c r="G48" s="29">
-        <v>54.960674107472499</v>
+        <v>55.349111519740603</v>
       </c>
       <c r="H48" s="30">
-        <v>28.9751184139811</v>
+        <v>33.755809359556302</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2629,22 +2629,22 @@
         <v>100</v>
       </c>
       <c r="C49" s="19">
-        <v>53989.053094952302</v>
+        <v>75.3743411902216</v>
       </c>
       <c r="D49" s="20">
-        <v>17777.3354708279</v>
+        <v>27.586074749540298</v>
       </c>
       <c r="E49" s="20">
-        <v>-94.019486478857999</v>
+        <v>-0.1257456671586</v>
       </c>
       <c r="F49" s="20">
-        <v>39.662854479825398</v>
+        <v>-2.8346702726033</v>
       </c>
       <c r="G49" s="20">
-        <v>22.577556072879201</v>
+        <v>27.689916003193101</v>
       </c>
       <c r="H49" s="21">
-        <v>22.632864580266698</v>
+        <v>24.855245730589701</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2655,22 +2655,22 @@
         <v>102</v>
       </c>
       <c r="C50" s="19">
-        <v>2148.54933413974</v>
+        <v>113.887952322286</v>
       </c>
       <c r="D50" s="20">
-        <v>421.565496988863</v>
+        <v>21.0970848957007</v>
       </c>
       <c r="E50" s="20">
         <v>0</v>
       </c>
       <c r="F50" s="20">
-        <v>-535.67339839215003</v>
+        <v>-34.985037217986999</v>
       </c>
       <c r="G50" s="20">
-        <v>35.509076170239602</v>
+        <v>42.794004009290703</v>
       </c>
       <c r="H50" s="21">
-        <v>9.17883191879206</v>
+        <v>7.8089667913040604</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -2681,22 +2681,22 @@
         <v>104</v>
       </c>
       <c r="C51" s="15">
-        <v>63374.760152752999</v>
+        <v>80.815667562294806</v>
       </c>
       <c r="D51" s="16">
-        <v>13335.7393782778</v>
+        <v>14.063814283079299</v>
       </c>
       <c r="E51" s="16">
-        <v>1349.9531968665401</v>
+        <v>1.7054132410428899</v>
       </c>
       <c r="F51" s="16">
-        <v>1096.5025705744199</v>
+        <v>3.41510491358305</v>
       </c>
       <c r="G51" s="16">
-        <v>28.5223939091041</v>
+        <v>31.470426322857101</v>
       </c>
       <c r="H51" s="17">
-        <v>29.9076197132548</v>
+        <v>34.885531236440102</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2707,22 +2707,22 @@
         <v>106</v>
       </c>
       <c r="C52" s="19">
-        <v>11746.1141399014</v>
+        <v>81.664979749677897</v>
       </c>
       <c r="D52" s="20">
-        <v>2899.9546030792799</v>
+        <v>16.893245956707599</v>
       </c>
       <c r="E52" s="20">
         <v>0</v>
       </c>
       <c r="F52" s="20">
-        <v>1509.2462415361299</v>
+        <v>1.4417742936145701</v>
       </c>
       <c r="G52" s="20">
-        <v>54.2029999741818</v>
+        <v>41.620687056682698</v>
       </c>
       <c r="H52" s="21">
-        <v>63.545103442808603</v>
+        <v>43.062461350297198</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2733,22 +2733,22 @@
         <v>108</v>
       </c>
       <c r="C53" s="19">
-        <v>1597.42443058913</v>
+        <v>95.631083201303397</v>
       </c>
       <c r="D53" s="20">
-        <v>310.09060528469399</v>
+        <v>17.313196304349201</v>
       </c>
       <c r="E53" s="20">
-        <v>2.69396400068345</v>
+        <v>1.2158875006038501</v>
       </c>
       <c r="F53" s="20">
-        <v>-184.74666921747999</v>
+        <v>-14.160167006256</v>
       </c>
       <c r="G53" s="20">
-        <v>30.38155514312</v>
+        <v>30.4591562650226</v>
       </c>
       <c r="H53" s="21">
-        <v>19.6744729927305</v>
+        <v>16.298989258766198</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2785,22 +2785,22 @@
         <v>112</v>
       </c>
       <c r="C55" s="19">
-        <v>17327.629949893198</v>
+        <v>95.316515767419602</v>
       </c>
       <c r="D55" s="20">
-        <v>3892.2581853264501</v>
+        <v>13.8782744774355</v>
       </c>
       <c r="E55" s="20">
-        <v>316.77709860656199</v>
+        <v>1.4078817046376599</v>
       </c>
       <c r="F55" s="20">
-        <v>-2346.3233261895998</v>
+        <v>-10.602671949493001</v>
       </c>
       <c r="G55" s="20">
-        <v>40.288602948572098</v>
+        <v>39.388120384251899</v>
       </c>
       <c r="H55" s="21">
-        <v>28.062018672572599</v>
+        <v>28.7854484347592</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -2811,48 +2811,48 @@
         <v>114</v>
       </c>
       <c r="C56" s="19">
-        <v>12714.781189801201</v>
+        <v>86.002887852569302</v>
       </c>
       <c r="D56" s="20">
-        <v>4724.2190841935599</v>
+        <v>31.4979347893319</v>
       </c>
       <c r="E56" s="20">
-        <v>24.398022665732899</v>
+        <v>0.1538895439578</v>
       </c>
       <c r="F56" s="20">
-        <v>-2540.6694032152</v>
+        <v>-17.654712185859001</v>
       </c>
       <c r="G56" s="20">
-        <v>32.522383279706901</v>
+        <v>30.988498716026399</v>
       </c>
       <c r="H56" s="21">
-        <v>15.496881969881301</v>
+        <v>13.3337865301673</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="28">
-        <v>340825.48765182402</v>
-      </c>
-      <c r="D57" s="29">
-        <v>113031.822886954</v>
-      </c>
-      <c r="E57" s="29">
-        <v>2911.64958587212</v>
-      </c>
-      <c r="F57" s="29">
-        <v>-15344.676447316</v>
-      </c>
-      <c r="G57" s="29">
-        <v>14.9758353570595</v>
-      </c>
-      <c r="H57" s="30">
-        <v>11.499661296247799</v>
+      <c r="C57" s="19">
+        <v>81.096218104282102</v>
+      </c>
+      <c r="D57" s="20">
+        <v>21.131531221547299</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.51343661026597998</v>
+      </c>
+      <c r="F57" s="20">
+        <v>-2.7411859360954001</v>
+      </c>
+      <c r="G57" s="20">
+        <v>16.835537729053499</v>
+      </c>
+      <c r="H57" s="21">
+        <v>14.0943517929582</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2863,22 +2863,22 @@
         <v>118</v>
       </c>
       <c r="C58" s="19">
-        <v>22974.746504327199</v>
+        <v>79.985493023561105</v>
       </c>
       <c r="D58" s="20">
-        <v>9375.9093491158092</v>
+        <v>34.956080433280803</v>
       </c>
       <c r="E58" s="20">
-        <v>1069.78709081374</v>
+        <v>8.0232559551398399</v>
       </c>
       <c r="F58" s="20">
-        <v>-5780.7593793095002</v>
+        <v>-22.964829411981999</v>
       </c>
       <c r="G58" s="20">
-        <v>44.288297329656601</v>
+        <v>47.297403019887</v>
       </c>
       <c r="H58" s="21">
-        <v>23.373588354331201</v>
+        <v>24.332573607905299</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -2889,22 +2889,22 @@
         <v>120</v>
       </c>
       <c r="C59" s="19">
-        <v>4439.4042246696999</v>
+        <v>107.895970489606</v>
       </c>
       <c r="D59" s="20">
-        <v>446.62525513018801</v>
+        <v>11.742776283051599</v>
       </c>
       <c r="E59" s="20">
-        <v>16.5619168379379</v>
+        <v>0</v>
       </c>
       <c r="F59" s="20">
-        <v>-754.72080098807999</v>
+        <v>-19.638746772657999</v>
       </c>
       <c r="G59" s="20">
-        <v>45.059492421605</v>
+        <v>47.547421311441902</v>
       </c>
       <c r="H59" s="21">
-        <v>26.864112802491</v>
+        <v>27.908674538784201</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2915,22 +2915,22 @@
         <v>122</v>
       </c>
       <c r="C60" s="15">
-        <v>7066.4000456222902</v>
+        <v>83.160727104077694</v>
       </c>
       <c r="D60" s="16">
-        <v>2038.9023040392501</v>
+        <v>27.225179181936799</v>
       </c>
       <c r="E60" s="16">
-        <v>72.170986526397797</v>
+        <v>0</v>
       </c>
       <c r="F60" s="16">
-        <v>-747.08371323484005</v>
+        <v>-10.385906286014</v>
       </c>
       <c r="G60" s="16">
-        <v>31.454935848949798</v>
+        <v>39.499974172960698</v>
       </c>
       <c r="H60" s="17">
-        <v>22.593142424826301</v>
+        <v>29.114067886946099</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2941,22 +2941,22 @@
         <v>123</v>
       </c>
       <c r="C61" s="24">
-        <v>568226.76198364305</v>
+        <v>81.302804174256593</v>
       </c>
       <c r="D61" s="25">
-        <v>178850.23486397299</v>
+        <v>21.6166402859618</v>
       </c>
       <c r="E61" s="25">
-        <v>5943.1859397252101</v>
+        <v>0.85030035653744995</v>
       </c>
       <c r="F61" s="25">
-        <v>-26920.862338862</v>
+        <v>-3.7697448167558001</v>
       </c>
       <c r="G61" s="25">
-        <v>21.317062387474301</v>
+        <v>23.391647626914299</v>
       </c>
       <c r="H61" s="26">
-        <v>17.595658025320699</v>
+        <v>19.621902810158499</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2967,22 +2967,22 @@
         <v>124</v>
       </c>
       <c r="C62" s="34">
-        <v>2124502.1176139298</v>
+        <v>81.506745932637003</v>
       </c>
       <c r="D62" s="35">
-        <v>569207.07622613001</v>
+        <v>20.597671436124202</v>
       </c>
       <c r="E62" s="35">
-        <v>25545.479604821601</v>
+        <v>1.2601957507014201</v>
       </c>
       <c r="F62" s="35">
-        <v>-83165.137368110998</v>
+        <v>-3.3646131194625002</v>
       </c>
       <c r="G62" s="35">
-        <v>25.268464176673898</v>
+        <v>27.970194465157</v>
       </c>
       <c r="H62" s="36">
-        <v>21.553631926280602</v>
+        <v>24.605581345694599</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2993,22 +2993,22 @@
         <v>125</v>
       </c>
       <c r="C63" s="38">
-        <v>65825313.164823301</v>
+        <v>70.7709258649856</v>
       </c>
       <c r="D63" s="39">
-        <v>24170587.218255401</v>
+        <v>27.5992792154724</v>
       </c>
       <c r="E63" s="39">
-        <v>797964.05274088099</v>
+        <v>1.3065464302796701</v>
       </c>
       <c r="F63" s="39">
-        <v>806147.74685472494</v>
+        <v>0.32324848926243999</v>
       </c>
       <c r="G63" s="39">
-        <v>27.562163134908101</v>
+        <v>30.453768971124799</v>
       </c>
       <c r="H63" s="40">
-        <v>28.4073047537401</v>
+        <v>30.727618549084699</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3019,22 +3019,22 @@
         <v>126</v>
       </c>
       <c r="C64" s="34">
-        <v>3990823.07438449</v>
+        <v>81.347166361103007</v>
       </c>
       <c r="D64" s="35">
-        <v>1001033.78299388</v>
+        <v>20.265400298151</v>
       </c>
       <c r="E64" s="35">
-        <v>31162.6752155104</v>
+        <v>0.31572389562325998</v>
       </c>
       <c r="F64" s="35">
-        <v>-50977.249152463002</v>
+        <v>-1.9282905548772</v>
       </c>
       <c r="G64" s="35">
-        <v>28.4771141350998</v>
+        <v>30.600415414970801</v>
       </c>
       <c r="H64" s="36">
-        <v>27.3401300107057</v>
+        <v>28.6721248600936</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3045,22 +3045,22 @@
         <v>127</v>
       </c>
       <c r="C65" s="43">
-        <v>15021911.755406501</v>
+        <v>62.322910378066197</v>
       </c>
       <c r="D65" s="44">
-        <v>9504594.5066745002</v>
+        <v>36.3291499245463</v>
       </c>
       <c r="E65" s="44">
-        <v>397265.540651466</v>
+        <v>1.2548722206531999</v>
       </c>
       <c r="F65" s="44">
-        <v>270583.72264392499</v>
+        <v>9.3067476734370005E-2</v>
       </c>
       <c r="G65" s="44">
-        <v>22.082742848418999</v>
+        <v>23.6549274917971</v>
       </c>
       <c r="H65" s="45">
-        <v>22.222095302723901</v>
+        <v>23.6811990966835</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3071,22 +3071,22 @@
         <v>128</v>
       </c>
       <c r="C66" s="47">
-        <v>67949815.282437205</v>
+        <v>71.301759249933596</v>
       </c>
       <c r="D66" s="48">
-        <v>24739794.294481501</v>
+        <v>27.2530842220607</v>
       </c>
       <c r="E66" s="48">
-        <v>823509.53234570206</v>
+        <v>1.3042546176393599</v>
       </c>
       <c r="F66" s="48">
-        <v>722982.609486614</v>
+        <v>0.14090191036642</v>
       </c>
       <c r="G66" s="48">
-        <v>27.448766477243002</v>
+        <v>30.3299427577941</v>
       </c>
       <c r="H66" s="49">
-        <v>28.0684705799817</v>
+        <v>30.422385634612301</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3097,22 +3097,22 @@
         <v>129</v>
       </c>
       <c r="C67" s="51">
-        <v>778668.46201294695</v>
+        <v>88.563866102206106</v>
       </c>
       <c r="D67" s="52">
-        <v>142929.08605732999</v>
+        <v>16.6567186069665</v>
       </c>
       <c r="E67" s="52">
-        <v>15921.541530493399</v>
+        <v>2.3778283635658499</v>
       </c>
       <c r="F67" s="52">
-        <v>-70837.441169369005</v>
+        <v>-7.5984130727384001</v>
       </c>
       <c r="G67" s="52">
-        <v>24.066702014755698</v>
+        <v>26.455698298207</v>
       </c>
       <c r="H67" s="53">
-        <v>15.7717542325768</v>
+        <v>18.857285225468601</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3123,22 +3123,22 @@
         <v>130</v>
       </c>
       <c r="C68" s="43">
-        <v>1143984.3277499201</v>
+        <v>85.234600723734204</v>
       </c>
       <c r="D68" s="44">
-        <v>280877.44485594198</v>
+        <v>18.498069658632499</v>
       </c>
       <c r="E68" s="44">
-        <v>27997.255031934001</v>
+        <v>2.1010196801337302</v>
       </c>
       <c r="F68" s="44">
-        <v>-84875.585548556002</v>
+        <v>-5.8336900625004002</v>
       </c>
       <c r="G68" s="44">
-        <v>24.122050418389701</v>
+        <v>27.2032141353254</v>
       </c>
       <c r="H68" s="45">
-        <v>17.660726414050298</v>
+        <v>21.369524072825001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3149,22 +3149,22 @@
         <v>131</v>
       </c>
       <c r="C69" s="43">
-        <v>197687.65158142199</v>
+        <v>82.499491714524495</v>
       </c>
       <c r="D69" s="44">
-        <v>70208.098548027207</v>
+        <v>25.3544479547561</v>
       </c>
       <c r="E69" s="44">
-        <v>-632.65578770836999</v>
+        <v>-0.42669362450839998</v>
       </c>
       <c r="F69" s="44">
-        <v>-20463.337144866</v>
+        <v>-7.4272460447722999</v>
       </c>
       <c r="G69" s="44">
-        <v>21.465679008418402</v>
+        <v>26.267561688151101</v>
       </c>
       <c r="H69" s="45">
-        <v>13.1152398733021</v>
+        <v>18.840315643378801</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3175,22 +3175,22 @@
         <v>132</v>
       </c>
       <c r="C70" s="43">
-        <v>182516.51585113601</v>
+        <v>72.297359975830105</v>
       </c>
       <c r="D70" s="44">
-        <v>51563.116314678598</v>
+        <v>20.2571411338755</v>
       </c>
       <c r="E70" s="44">
-        <v>-108.64617549953</v>
+        <v>1.0716093009470001E-2</v>
       </c>
       <c r="F70" s="44">
-        <v>16702.838535237101</v>
+        <v>7.4347827972849698</v>
       </c>
       <c r="G70" s="44">
-        <v>29.7576408733287</v>
+        <v>30.411284208848901</v>
       </c>
       <c r="H70" s="45">
-        <v>36.901781767310602</v>
+        <v>37.8460670061339</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3201,22 +3201,22 @@
         <v>133</v>
       </c>
       <c r="C71" s="43">
-        <v>568226.76198364305</v>
+        <v>81.302804174256593</v>
       </c>
       <c r="D71" s="44">
-        <v>178850.23486397299</v>
+        <v>21.6166402859618</v>
       </c>
       <c r="E71" s="44">
-        <v>5943.1859397252101</v>
+        <v>0.85030035653744995</v>
       </c>
       <c r="F71" s="44">
-        <v>-26920.862338862</v>
+        <v>-3.7697448167558001</v>
       </c>
       <c r="G71" s="44">
-        <v>21.317062387474301</v>
+        <v>23.391647626914299</v>
       </c>
       <c r="H71" s="45">
-        <v>17.595658025320699</v>
+        <v>19.621902810158499</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3227,22 +3227,22 @@
         <v>134</v>
       </c>
       <c r="C72" s="43">
-        <v>222426.68657466499</v>
+        <v>85.998134515087202</v>
       </c>
       <c r="D72" s="44">
-        <v>65714.6412136336</v>
+        <v>23.495789278087699</v>
       </c>
       <c r="E72" s="44">
-        <v>1040.6769038509301</v>
+        <v>0.10013756748386</v>
       </c>
       <c r="F72" s="44">
-        <v>-25049.763594213</v>
+        <v>-9.5940613606588006</v>
       </c>
       <c r="G72" s="44">
-        <v>21.2582472280072</v>
+        <v>21.9128526566179</v>
       </c>
       <c r="H72" s="45">
-        <v>11.841974151489101</v>
+        <v>12.3187912959591</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3253,22 +3253,22 @@
         <v>135</v>
       </c>
       <c r="C73" s="43">
-        <v>577345.09442965395</v>
+        <v>78.245063586235304</v>
       </c>
       <c r="D73" s="44">
-        <v>140822.47565743601</v>
+        <v>20.724499640945002</v>
       </c>
       <c r="E73" s="44">
-        <v>-3524.5199322200001</v>
+        <v>0.35972378287987</v>
       </c>
       <c r="F73" s="44">
-        <v>26389.755682755698</v>
+        <v>0.67071298993983997</v>
       </c>
       <c r="G73" s="44">
-        <v>29.037867473819301</v>
+        <v>33.459570143196402</v>
       </c>
       <c r="H73" s="45">
-        <v>32.701171287942799</v>
+        <v>34.130283133136203</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3279,22 +3279,22 @@
         <v>136</v>
       </c>
       <c r="C74" s="43">
-        <v>267279.76833039499</v>
+        <v>73.024237991567105</v>
       </c>
       <c r="D74" s="44">
-        <v>110775.625974758</v>
+        <v>27.9255592981138</v>
       </c>
       <c r="E74" s="44">
-        <v>6287.1117376187003</v>
+        <v>0.34488162562377001</v>
       </c>
       <c r="F74" s="44">
-        <v>-22185.145022205001</v>
+        <v>-1.2946789153047</v>
       </c>
       <c r="G74" s="44">
-        <v>36.360388130471598</v>
+        <v>39.613237428367697</v>
       </c>
       <c r="H74" s="45">
-        <v>30.719871814261001</v>
+        <v>38.318558513063003</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3305,22 +3305,22 @@
         <v>137</v>
       </c>
       <c r="C75" s="47">
-        <v>59038.220697827703</v>
+        <v>64.177937600434504</v>
       </c>
       <c r="D75" s="48">
-        <v>27826.2060450893</v>
+        <v>29.9033445083111</v>
       </c>
       <c r="E75" s="48">
-        <v>2.69396400068345</v>
+        <v>2.1696559964240001E-2</v>
       </c>
       <c r="F75" s="48">
-        <v>8068.8653964325504</v>
+        <v>5.8970213312902002</v>
       </c>
       <c r="G75" s="48">
-        <v>32.605729943935799</v>
+        <v>33.534352804720299</v>
       </c>
       <c r="H75" s="49">
-        <v>42.090521740483602</v>
+        <v>39.431374136010497</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3331,22 +3331,22 @@
         <v>138</v>
       </c>
       <c r="C76" s="51">
-        <v>2245201.1626782599</v>
+        <v>68.102542963005902</v>
       </c>
       <c r="D76" s="52">
-        <v>884080.70167587895</v>
+        <v>26.998337555159001</v>
       </c>
       <c r="E76" s="52">
-        <v>54480.235558580498</v>
+        <v>2.0631416483890499</v>
       </c>
       <c r="F76" s="52">
-        <v>147248.07531621799</v>
+        <v>2.8359778334460701</v>
       </c>
       <c r="G76" s="52">
-        <v>45.6647622748945</v>
+        <v>50.4289384010563</v>
       </c>
       <c r="H76" s="53">
-        <v>48.609978739905998</v>
+        <v>53.252867804450901</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3357,22 +3357,22 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>2633938.9705257099</v>
+        <v>80.632651483470497</v>
       </c>
       <c r="D77" s="44">
-        <v>639659.93663653999</v>
+        <v>19.682164588691101</v>
       </c>
       <c r="E77" s="44">
-        <v>20228.842123311701</v>
+        <v>0.26921476641206998</v>
       </c>
       <c r="F77" s="44">
-        <v>13744.2244463876</v>
+        <v>-0.58403083857360005</v>
       </c>
       <c r="G77" s="44">
-        <v>21.007044521775001</v>
+        <v>22.982606019176899</v>
       </c>
       <c r="H77" s="45">
-        <v>21.2287419232707</v>
+        <v>22.398575180603299</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3383,22 +3383,22 @@
         <v>140</v>
       </c>
       <c r="C78" s="43">
-        <v>12548987.7595411</v>
+        <v>74.256955168604094</v>
       </c>
       <c r="D78" s="44">
-        <v>3794445.0603533699</v>
+        <v>22.586726759692201</v>
       </c>
       <c r="E78" s="44">
-        <v>210608.595024843</v>
+        <v>1.9807191652315601</v>
       </c>
       <c r="F78" s="44">
-        <v>635049.80060542701</v>
+        <v>1.1755989064721599</v>
       </c>
       <c r="G78" s="44">
-        <v>47.084285236322401</v>
+        <v>54.539113370785998</v>
       </c>
       <c r="H78" s="45">
-        <v>50.375181345654902</v>
+        <v>55.714712277258101</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3409,22 +3409,22 @@
         <v>141</v>
       </c>
       <c r="C79" s="47">
-        <v>45108004.293125503</v>
+        <v>77.317136694916002</v>
       </c>
       <c r="D79" s="48">
-        <v>13019973.0204695</v>
+        <v>22.717867252822099</v>
       </c>
       <c r="E79" s="48">
-        <v>269391.99416869401</v>
+        <v>1.32950299862605</v>
       </c>
       <c r="F79" s="48">
-        <v>-7175.3169393564003</v>
+        <v>-1.3645069463641</v>
       </c>
       <c r="G79" s="48">
-        <v>30.024863308703001</v>
+        <v>34.7285820729713</v>
       </c>
       <c r="H79" s="49">
-        <v>30.0327530239962</v>
+        <v>33.364075493980899</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -3435,22 +3435,22 @@
         <v>142</v>
       </c>
       <c r="C80" s="51">
-        <v>532762.94867150101</v>
+        <v>60.217787575001203</v>
       </c>
       <c r="D80" s="52">
-        <v>210318.93551819099</v>
+        <v>29.5712118155786</v>
       </c>
       <c r="E80" s="52">
-        <v>3841.1972817041701</v>
+        <v>-0.72910133733159999</v>
       </c>
       <c r="F80" s="52">
-        <v>449.14628190427902</v>
+        <v>10.940101946751801</v>
       </c>
       <c r="G80" s="52">
-        <v>21.083032958387001</v>
+        <v>26.6512725685558</v>
       </c>
       <c r="H80" s="53">
-        <v>21.085707000435601</v>
+        <v>37.5913745153075</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3461,22 +3461,22 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>2736240.3916404801</v>
+        <v>61.6915742880038</v>
       </c>
       <c r="D81" s="44">
-        <v>907100.45444803801</v>
+        <v>22.327940501993599</v>
       </c>
       <c r="E81" s="44">
-        <v>135113.66446830699</v>
+        <v>3.7830152672688802</v>
       </c>
       <c r="F81" s="44">
-        <v>415324.88561055902</v>
+        <v>12.197469942733701</v>
       </c>
       <c r="G81" s="44">
-        <v>27.773589389000701</v>
+        <v>25.3220863268849</v>
       </c>
       <c r="H81" s="45">
-        <v>36.039677953150303</v>
+        <v>37.174368983743697</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3487,22 +3487,22 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>1591739.1689424301</v>
+        <v>84.575820939826002</v>
       </c>
       <c r="D82" s="44">
-        <v>358888.14070793899</v>
+        <v>19.3040210826437</v>
       </c>
       <c r="E82" s="44">
-        <v>21704.282323117401</v>
+        <v>1.5469783105708299</v>
       </c>
       <c r="F82" s="44">
-        <v>-83614.283650015001</v>
+        <v>-5.4268203330405003</v>
       </c>
       <c r="G82" s="44">
-        <v>26.982230949258099</v>
+        <v>28.160333886790202</v>
       </c>
       <c r="H82" s="45">
-        <v>21.745228478261598</v>
+        <v>22.733513553749699</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3513,22 +3513,22 @@
         <v>145</v>
       </c>
       <c r="C83" s="47">
-        <v>63089072.773182802</v>
+        <v>71.521675676898298</v>
       </c>
       <c r="D83" s="48">
-        <v>23263486.763807401</v>
+        <v>28.035153574353401</v>
       </c>
       <c r="E83" s="48">
-        <v>662850.38827257406</v>
+        <v>1.10177316009472</v>
       </c>
       <c r="F83" s="48">
-        <v>390822.86124416703</v>
+        <v>-0.65860241134639996</v>
       </c>
       <c r="G83" s="48">
-        <v>27.5443445514179</v>
+        <v>30.882137064144199</v>
       </c>
       <c r="H83" s="49">
-        <v>27.7640635457578</v>
+        <v>30.189474945647699</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3539,22 +3539,22 @@
         <v>146</v>
       </c>
       <c r="C84" s="51">
-        <v>309920.37848032999</v>
+        <v>85.204469173070706</v>
       </c>
       <c r="D84" s="52">
-        <v>89635.255751331599</v>
+        <v>24.3141308619367</v>
       </c>
       <c r="E84" s="52">
-        <v>-216.4472469678</v>
+        <v>0.28111098692427999</v>
       </c>
       <c r="F84" s="52">
-        <v>-34458.341256442996</v>
+        <v>-9.7997110219316994</v>
       </c>
       <c r="G84" s="52">
-        <v>31.154768942322502</v>
+        <v>33.096677414917501</v>
       </c>
       <c r="H84" s="53">
-        <v>21.3237471609674</v>
+        <v>23.296966392985802</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3565,22 +3565,22 @@
         <v>147</v>
       </c>
       <c r="C85" s="43">
-        <v>24813.783229583099</v>
+        <v>142.07242663204599</v>
       </c>
       <c r="D85" s="44">
-        <v>998.863693266837</v>
+        <v>5.8524114122933204</v>
       </c>
       <c r="E85" s="44">
         <v>0</v>
       </c>
       <c r="F85" s="44">
-        <v>-8856.1257668039998</v>
+        <v>-47.924838044339999</v>
       </c>
       <c r="G85" s="44">
-        <v>64.308605564439006</v>
+        <v>58.640094671253799</v>
       </c>
       <c r="H85" s="45">
-        <v>12.080169759101199</v>
+        <v>10.715256626914099</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -3591,22 +3591,22 @@
         <v>148</v>
       </c>
       <c r="C86" s="43">
-        <v>1414670.0189186099</v>
+        <v>80.650476391316801</v>
       </c>
       <c r="D86" s="44">
-        <v>408372.70589577197</v>
+        <v>20.8903713662509</v>
       </c>
       <c r="E86" s="44">
-        <v>26622.647965394299</v>
+        <v>1.5335778710966499</v>
       </c>
       <c r="F86" s="44">
-        <v>-74622.572463388002</v>
+        <v>-3.0744256286642999</v>
       </c>
       <c r="G86" s="44">
-        <v>23.5838440365211</v>
+        <v>25.6222852164499</v>
       </c>
       <c r="H86" s="45">
-        <v>19.265399886877798</v>
+        <v>22.547859587785599</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3617,22 +3617,22 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>5023733.8522028197</v>
+        <v>73.765286243418302</v>
       </c>
       <c r="D87" s="44">
-        <v>1880753.89568551</v>
+        <v>28.736288370697299</v>
       </c>
       <c r="E87" s="44">
-        <v>150961.606778838</v>
+        <v>1.88806621776282</v>
       </c>
       <c r="F87" s="44">
-        <v>-225718.24646833001</v>
+        <v>-4.3896408318783999</v>
       </c>
       <c r="G87" s="44">
-        <v>24.576995078639701</v>
+        <v>27.438469008611399</v>
       </c>
       <c r="H87" s="45">
-        <v>21.1837456835692</v>
+        <v>22.639997262885299</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3643,22 +3643,22 @@
         <v>150</v>
       </c>
       <c r="C88" s="43">
-        <v>398758.17576097598</v>
+        <v>81.843076579226704</v>
       </c>
       <c r="D88" s="44">
-        <v>70825.689768462893</v>
+        <v>15.2483301725806</v>
       </c>
       <c r="E88" s="44">
-        <v>-860.72111360491999</v>
+        <v>0.94609609220502999</v>
       </c>
       <c r="F88" s="44">
-        <v>25985.631023218899</v>
+        <v>1.96249715598769</v>
       </c>
       <c r="G88" s="44">
-        <v>27.596230765186998</v>
+        <v>33.853785610996702</v>
       </c>
       <c r="H88" s="45">
-        <v>32.686004420580801</v>
+        <v>35.816282766984401</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -3669,22 +3669,22 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>16212120.457752001</v>
+        <v>62.153170655559101</v>
       </c>
       <c r="D89" s="44">
-        <v>9336379.7034219503</v>
+        <v>34.088551785479098</v>
       </c>
       <c r="E89" s="44">
-        <v>393936.798702056</v>
+        <v>1.1386118310183999</v>
       </c>
       <c r="F89" s="44">
-        <v>613862.81814527302</v>
+        <v>2.6196657279434099</v>
       </c>
       <c r="G89" s="44">
-        <v>24.1999049894611</v>
+        <v>24.742493303052299</v>
       </c>
       <c r="H89" s="45">
-        <v>26.439260555695501</v>
+        <v>27.287127656878202</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3695,22 +3695,22 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>44511617.0068032</v>
+        <v>75.901831986487693</v>
       </c>
       <c r="D90" s="48">
-        <v>12949040.293938899</v>
+        <v>22.567235894732701</v>
       </c>
       <c r="E90" s="48">
-        <v>254776.220457991</v>
+        <v>1.2407492909126101</v>
       </c>
       <c r="F90" s="48">
-        <v>425900.50603799499</v>
+        <v>0.29018282786698002</v>
       </c>
       <c r="G90" s="48">
-        <v>31.048978841606701</v>
+        <v>35.616271735910502</v>
       </c>
       <c r="H90" s="49">
-        <v>32.258642093416903</v>
+        <v>35.906454940638497</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3721,22 +3721,22 @@
         <v>153</v>
       </c>
       <c r="C91" s="51">
-        <v>460071.018163239</v>
+        <v>78.713052350441799</v>
       </c>
       <c r="D91" s="52">
-        <v>165490.80775541399</v>
+        <v>27.228503379193601</v>
       </c>
       <c r="E91" s="52">
-        <v>235.07174538651199</v>
+        <v>-0.17871547294109999</v>
       </c>
       <c r="F91" s="52">
-        <v>-27854.962360525999</v>
+        <v>-5.7628402566943002</v>
       </c>
       <c r="G91" s="52">
-        <v>30.331811154509101</v>
+        <v>31.276057277245201</v>
       </c>
       <c r="H91" s="53">
-        <v>26.018937060795601</v>
+        <v>25.513217020550901</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3747,22 +3747,22 @@
         <v>154</v>
       </c>
       <c r="C92" s="43">
-        <v>478030.65637077799</v>
+        <v>80.964759046582699</v>
       </c>
       <c r="D92" s="44">
-        <v>174191.81726511699</v>
+        <v>30.695324035135499</v>
       </c>
       <c r="E92" s="44">
-        <v>2882.8066089346098</v>
+        <v>0.77766853661215996</v>
       </c>
       <c r="F92" s="44">
-        <v>-65484.577400563998</v>
+        <v>-12.437751618329999</v>
       </c>
       <c r="G92" s="44">
-        <v>26.678694060095101</v>
+        <v>29.675431222978599</v>
       </c>
       <c r="H92" s="45">
-        <v>14.850623938484301</v>
+        <v>17.237679604648299</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -3773,22 +3773,22 @@
         <v>155</v>
       </c>
       <c r="C93" s="43">
-        <v>16740.2552494181</v>
+        <v>89.638228187934899</v>
       </c>
       <c r="D93" s="44">
-        <v>4164.8337114443202</v>
+        <v>22.1542007460821</v>
       </c>
       <c r="E93" s="44">
-        <v>22.959405241184001</v>
+        <v>-5.4141908991900002E-2</v>
       </c>
       <c r="F93" s="44">
-        <v>-2303.5931844125998</v>
+        <v>-11.738287025025</v>
       </c>
       <c r="G93" s="44">
-        <v>54.575917160921101</v>
+        <v>62.6493008996448</v>
       </c>
       <c r="H93" s="45">
-        <v>42.575424196840899</v>
+        <v>50.911013874619698</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -3799,22 +3799,22 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>348235.72841183201</v>
+        <v>56.256953228476199</v>
       </c>
       <c r="D94" s="44">
-        <v>148347.90994850601</v>
+        <v>23.163533388570901</v>
       </c>
       <c r="E94" s="44">
-        <v>8376.3123888677292</v>
+        <v>0.99179002861525001</v>
       </c>
       <c r="F94" s="44">
-        <v>135926.77627540499</v>
+        <v>19.5877233543378</v>
       </c>
       <c r="G94" s="44">
-        <v>106.920069458821</v>
+        <v>110.346641376101</v>
       </c>
       <c r="H94" s="45">
-        <v>125.093833656521</v>
+        <v>129.934364730439</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3825,22 +3825,22 @@
         <v>157</v>
       </c>
       <c r="C95" s="43">
-        <v>238692.36177231601</v>
+        <v>83.622454352832804</v>
       </c>
       <c r="D95" s="44">
-        <v>76263.534752241496</v>
+        <v>24.712548660152301</v>
       </c>
       <c r="E95" s="44">
-        <v>1225.89612717302</v>
+        <v>0.38827226245170998</v>
       </c>
       <c r="F95" s="44">
-        <v>-25754.891952046</v>
+        <v>-8.7232752754367997</v>
       </c>
       <c r="G95" s="44">
-        <v>28.618466041903002</v>
+        <v>28.6126026724544</v>
       </c>
       <c r="H95" s="45">
-        <v>20.175645702809302</v>
+        <v>19.889327397017698</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3851,22 +3851,22 @@
         <v>158</v>
       </c>
       <c r="C96" s="47">
-        <v>372513.734285046</v>
+        <v>74.069529516517306</v>
       </c>
       <c r="D96" s="48">
-        <v>119261.15335286201</v>
+        <v>24.4178411118389</v>
       </c>
       <c r="E96" s="48">
-        <v>16512.729382532099</v>
+        <v>3.5584249717701999</v>
       </c>
       <c r="F96" s="48">
-        <v>-8607.6122088072007</v>
+        <v>-2.0457956001264002</v>
       </c>
       <c r="G96" s="48">
-        <v>34.671861784469101</v>
+        <v>37.860485645306902</v>
       </c>
       <c r="H96" s="49">
-        <v>30.833721527613299</v>
+        <v>35.814690045180598</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -3877,22 +3877,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>950997.63410818297</v>
+        <v>79.749756285356895</v>
       </c>
       <c r="D97" s="52">
-        <v>311517.20919499302</v>
+        <v>23.973780062193001</v>
       </c>
       <c r="E97" s="52">
-        <v>2558.5826757991099</v>
+        <v>-7.2558422710299997E-2</v>
       </c>
       <c r="F97" s="52">
-        <v>-39116.133807819002</v>
+        <v>-3.6509779248396002</v>
       </c>
       <c r="G97" s="52">
-        <v>23.047698166664102</v>
+        <v>24.670360821373698</v>
       </c>
       <c r="H97" s="53">
-        <v>19.8567645216473</v>
+        <v>21.019382896534101</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3903,22 +3903,22 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>1120206.8921779201</v>
+        <v>79.648690184924007</v>
       </c>
       <c r="D98" s="48">
-        <v>313620.41918343102</v>
+        <v>22.875687917866699</v>
       </c>
       <c r="E98" s="48">
-        <v>48208.0009514669</v>
+        <v>4.50427201186469</v>
       </c>
       <c r="F98" s="48">
-        <v>-104611.2047297</v>
+        <v>-7.0286501146553997</v>
       </c>
       <c r="G98" s="48">
-        <v>22.991370562598199</v>
+        <v>24.393986400391</v>
       </c>
       <c r="H98" s="49">
-        <v>16.557290138638798</v>
+        <v>17.365336285735602</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4086,11 +4086,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{44C2EF33-43A1-45F5-8B06-6815CA95F177}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{11858BD7-1D16-4EA2-ACBF-88600EF53F57}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E3C0D1B3-1E30-4A73-9D8B-70752201D2DB}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D2205892-6E79-400E-ACF9-59A3AB6188A4}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8074BDFD-EE6A-43D3-9DE7-C6748BA8F3C0}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{58FFB24C-CF74-44EC-9BEE-4570E191C7D5}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5F0D7D16-7FA8-494E-89EB-9702CD32CED9}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{BA404A9D-2F8F-432B-9741-8D266DDD98CB}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B4012F64-96F0-481A-8260-800B6675C05C}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{01EF2560-BBCB-4604-863C-E148D71E372F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E90BA5-F802-4276-8495-2FA97C6E4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3A6B41-B201-4C6D-9D08-5FC97A12DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90078796-26B7-4807-A23E-C41C54BAF59C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57775F76-41AC-498A-BAB6-9508C8AC89D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15623C88-9543-4A61-8FD0-99247DC37A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFB61B-0B93-4B47-A66B-149A73A89F39}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4086,11 +4086,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{58FFB24C-CF74-44EC-9BEE-4570E191C7D5}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5F0D7D16-7FA8-494E-89EB-9702CD32CED9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BA404A9D-2F8F-432B-9741-8D266DDD98CB}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B4012F64-96F0-481A-8260-800B6675C05C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{01EF2560-BBCB-4604-863C-E148D71E372F}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3162A00D-B206-41C4-8532-56C514D2B813}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DBF67198-005E-421F-ADE2-82C3341908C2}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{8F9D7813-0FA1-4E86-A1C3-C804ECBADB6F}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2F5D7C57-C91E-4D17-B152-523AE98BFAD7}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AC1D1EDB-CE71-4988-A734-423B3A210BFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3A6B41-B201-4C6D-9D08-5FC97A12DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D97E9F-E76B-445C-8ECC-078B201D1D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57775F76-41AC-498A-BAB6-9508C8AC89D5}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{DE5C754B-0CD2-49A7-BABF-86464FC243A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on IMF World Economic Outlook Database April 2023. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFB61B-0B93-4B47-A66B-149A73A89F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA4B552-84E1-4384-A840-EBE0AE467CC4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3877,22 +3877,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>79.749756285356895</v>
+        <v>79.699764984553497</v>
       </c>
       <c r="D97" s="52">
-        <v>23.973780062193001</v>
+        <v>24.521734728529001</v>
       </c>
       <c r="E97" s="52">
-        <v>-7.2558422710299997E-2</v>
+        <v>-8.4002208994100006E-2</v>
       </c>
       <c r="F97" s="52">
-        <v>-3.6509779248396002</v>
+        <v>-4.1374975040884001</v>
       </c>
       <c r="G97" s="52">
-        <v>24.670360821373698</v>
+        <v>23.295349503536499</v>
       </c>
       <c r="H97" s="53">
-        <v>21.019382896534101</v>
+        <v>19.157851999448098</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3903,22 +3903,22 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>79.648690184924007</v>
+        <v>78.676045325895501</v>
       </c>
       <c r="D98" s="48">
-        <v>22.875687917866699</v>
+        <v>23.1393376275857</v>
       </c>
       <c r="E98" s="48">
-        <v>4.50427201186469</v>
+        <v>4.5928667145691202</v>
       </c>
       <c r="F98" s="48">
-        <v>-7.0286501146553997</v>
+        <v>-6.4082496680503001</v>
       </c>
       <c r="G98" s="48">
-        <v>24.393986400391</v>
+        <v>23.929108903351601</v>
       </c>
       <c r="H98" s="49">
-        <v>17.365336285735602</v>
+        <v>17.520859235301302</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4086,11 +4086,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3162A00D-B206-41C4-8532-56C514D2B813}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DBF67198-005E-421F-ADE2-82C3341908C2}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{8F9D7813-0FA1-4E86-A1C3-C804ECBADB6F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2F5D7C57-C91E-4D17-B152-523AE98BFAD7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AC1D1EDB-CE71-4988-A734-423B3A210BFF}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B966A12B-0C3B-4A82-BDFC-DD36C2736EF7}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CBF75C77-4AC1-40DD-8379-02873C04E348}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9182F4CA-2BEC-40AC-A29C-CFA8BD8EC2AF}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C123025A-E1C5-448B-9885-EA2CD475242E}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A7C13AD2-CFFC-4F20-B776-E894AA60B2A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D97E9F-E76B-445C-8ECC-078B201D1D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C3CCBB-F7A3-4909-8B0D-5DBA5040A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{DE5C754B-0CD2-49A7-BABF-86464FC243A1}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{87901DA9-BD49-4F9A-B692-C7B52A52E928}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
   <si>
     <t>Table 15: Growth decomposition by expenditure</t>
   </si>
@@ -540,16 +540,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA4B552-84E1-4384-A840-EBE0AE467CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4E45AD-5B66-4644-8BF7-460B149BFD0E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4035,7 +4038,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4045,7 +4048,9 @@
       <c r="H110" s="57"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4055,7 +4060,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4066,7 +4071,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4086,13 +4091,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B966A12B-0C3B-4A82-BDFC-DD36C2736EF7}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CBF75C77-4AC1-40DD-8379-02873C04E348}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9182F4CA-2BEC-40AC-A29C-CFA8BD8EC2AF}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C123025A-E1C5-448B-9885-EA2CD475242E}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A7C13AD2-CFFC-4F20-B776-E894AA60B2A5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DFADEF0B-0DE2-4837-BEC1-F346BD151504}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{820F61D1-D1AD-40BB-BCE3-BF2349665236}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{82C0F782-16B9-4086-8FEE-8283DCC9F3C6}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{55625BD8-6799-4B07-815B-39C37FC2E81C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9967C12F-53A3-470E-B552-0CFF087ED785}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D55D4382-ACCE-423F-A24D-CC6F133292E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab15.xlsx
+++ b/AfDD_2023_Annex_Table_Tab15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C3CCBB-F7A3-4909-8B0D-5DBA5040A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{404C28F4-A720-4E42-8A28-16B3D6A82A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{87901DA9-BD49-4F9A-B692-C7B52A52E928}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{564477AE-A767-4316-8F2C-EF325ADB75BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab15'!$A$2:$H$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab15'!$A$1:$F$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -534,7 +534,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on IMF World Economic Outlook Database April 2023. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
+    <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2023. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4E45AD-5B66-4644-8BF7-460B149BFD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7C2F8C-C102-4485-9686-008E917E0BC6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1384,14 +1384,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1402,7 +1402,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>39.966506705019597</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>48.989099714980703</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>46.875258563112403</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>43.949768934768599</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>9.5849159392118999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>40.385469123322302</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>40.700876717596998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>33.5218331437326</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>41.710811496242599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
@@ -1696,25 +1696,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="24">
-        <v>78.515947042072995</v>
+        <v>78.505163009248307</v>
       </c>
       <c r="D13" s="25">
-        <v>18.570516036243198</v>
+        <v>18.577486055557301</v>
       </c>
       <c r="E13" s="25">
-        <v>0.77798626708628005</v>
+        <v>0.77752802340920002</v>
       </c>
       <c r="F13" s="25">
-        <v>2.1355506545975498</v>
+        <v>2.1398229117852399</v>
       </c>
       <c r="G13" s="25">
-        <v>33.365558355731899</v>
+        <v>33.3687189901663</v>
       </c>
       <c r="H13" s="26">
-        <v>35.501109010329401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.508541901951503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>7.1743717388125301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>20.247466427847801</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>13.70941939868</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>46.442248659784198</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>89.798608689818295</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>42.353849081517197</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>49.598653080776998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>43.736175164522102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>18.424266807136501</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
@@ -1956,25 +1956,25 @@
         <v>50</v>
       </c>
       <c r="C23" s="24">
-        <v>79.371370463253598</v>
+        <v>79.217475055368496</v>
       </c>
       <c r="D23" s="25">
-        <v>17.674406309791699</v>
+        <v>17.664657419151599</v>
       </c>
       <c r="E23" s="25">
-        <v>5.2952901520820002E-2</v>
+        <v>5.3038019608930002E-2</v>
       </c>
       <c r="F23" s="25">
-        <v>2.90127032543392</v>
+        <v>3.0648295058709598</v>
       </c>
       <c r="G23" s="25">
-        <v>34.988977959857401</v>
+        <v>35.1284306370612</v>
       </c>
       <c r="H23" s="26">
-        <v>37.890248285291399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>38.193260142932203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>13.096258256708101</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>133.854706347882</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>39.456827259620802</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>8.2452273830017209</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>12.1745426305185</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>30.220918744873401</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>56.805078414026802</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>23.5887890313574</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>114.785307470075</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>63.151818459429002</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>75</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>15.517281629476299</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>13.3485604767676</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>30</v>
       </c>
@@ -2346,25 +2346,25 @@
         <v>79</v>
       </c>
       <c r="C38" s="24">
-        <v>82.652137629487797</v>
+        <v>82.608107524147002</v>
       </c>
       <c r="D38" s="25">
-        <v>26.387131099080499</v>
+        <v>26.513217697470001</v>
       </c>
       <c r="E38" s="25">
-        <v>-0.32965259378829997</v>
+        <v>-0.33104655208669997</v>
       </c>
       <c r="F38" s="25">
-        <v>-8.7096161347799992</v>
+        <v>-8.7902786695303003</v>
       </c>
       <c r="G38" s="25">
-        <v>24.400196271866601</v>
+        <v>24.3340102339887</v>
       </c>
       <c r="H38" s="26">
-        <v>15.6905801370866</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15.543731564458501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>32.538030403097103</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>15.0870258208479</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>40.869478485390097</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>42.364289536506099</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>90</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>50.148243021048103</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>30</v>
       </c>
@@ -2528,25 +2528,25 @@
         <v>92</v>
       </c>
       <c r="C45" s="24">
-        <v>83.036270674562303</v>
+        <v>83.024019145858205</v>
       </c>
       <c r="D45" s="25">
-        <v>18.908521247481101</v>
+        <v>18.921899364407999</v>
       </c>
       <c r="E45" s="25">
-        <v>2.6428651237546998</v>
+        <v>2.6377311668363199</v>
       </c>
       <c r="F45" s="25">
-        <v>-4.5876570457980996</v>
+        <v>-4.5836496771024002</v>
       </c>
       <c r="G45" s="25">
-        <v>29.033212993168199</v>
+        <v>29.037986471862599</v>
       </c>
       <c r="H45" s="26">
-        <v>24.445555947370199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24.454336794760099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>25.092295760008799</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>28.391821485006801</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>97</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>33.755809359556302</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>99</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>24.855245730589701</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>7.8089667913040604</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>34.885531236440102</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>105</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>43.062461350297198</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>16.298989258766198</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>109</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>111</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>28.7854484347592</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>113</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>13.3337865301673</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>14.0943517929582</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>117</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>24.332573607905299</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>119</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>27.908674538784201</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>121</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>29.114067886946099</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>30</v>
       </c>
@@ -2944,25 +2944,25 @@
         <v>123</v>
       </c>
       <c r="C61" s="24">
-        <v>81.302804174256593</v>
+        <v>81.3109691816165</v>
       </c>
       <c r="D61" s="25">
-        <v>21.6166402859618</v>
+        <v>21.617331362391699</v>
       </c>
       <c r="E61" s="25">
-        <v>0.85030035653744995</v>
+        <v>0.84944230941719001</v>
       </c>
       <c r="F61" s="25">
-        <v>-3.7697448167558001</v>
+        <v>-3.7777428534254001</v>
       </c>
       <c r="G61" s="25">
-        <v>23.391647626914299</v>
+        <v>23.391363470213101</v>
       </c>
       <c r="H61" s="26">
-        <v>19.621902810158499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.613620616787699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>30</v>
       </c>
@@ -2970,25 +2970,25 @@
         <v>124</v>
       </c>
       <c r="C62" s="34">
-        <v>81.506745932637003</v>
+        <v>81.485089848854201</v>
       </c>
       <c r="D62" s="35">
-        <v>20.597671436124202</v>
+        <v>20.612459349262</v>
       </c>
       <c r="E62" s="35">
-        <v>1.2601957507014201</v>
+        <v>1.2588632543260101</v>
       </c>
       <c r="F62" s="35">
-        <v>-3.3646131194625002</v>
+        <v>-3.3564124524421</v>
       </c>
       <c r="G62" s="35">
-        <v>27.970194465157</v>
+        <v>27.982187809780001</v>
       </c>
       <c r="H62" s="36">
-        <v>24.605581345694599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24.625775357337901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>30</v>
       </c>
@@ -2996,25 +2996,25 @@
         <v>125</v>
       </c>
       <c r="C63" s="38">
-        <v>70.7709258649856</v>
+        <v>70.780061594982598</v>
       </c>
       <c r="D63" s="39">
-        <v>27.5992792154724</v>
+        <v>27.590699347626501</v>
       </c>
       <c r="E63" s="39">
-        <v>1.3065464302796701</v>
+        <v>1.30750430955534</v>
       </c>
       <c r="F63" s="39">
-        <v>0.32324848926243999</v>
+        <v>0.32173474783554001</v>
       </c>
       <c r="G63" s="39">
-        <v>30.453768971124799</v>
+        <v>30.486891561539501</v>
       </c>
       <c r="H63" s="40">
-        <v>30.727618549084699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.759327244342799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>30</v>
       </c>
@@ -3022,25 +3022,25 @@
         <v>126</v>
       </c>
       <c r="C64" s="34">
-        <v>81.347166361103007</v>
+        <v>81.331293087892206</v>
       </c>
       <c r="D64" s="35">
-        <v>20.265400298151</v>
+        <v>20.283935696399801</v>
       </c>
       <c r="E64" s="35">
-        <v>0.31572389562325998</v>
+        <v>0.31616236735950998</v>
       </c>
       <c r="F64" s="35">
-        <v>-1.9282905548772</v>
+        <v>-1.9313911516515001</v>
       </c>
       <c r="G64" s="35">
-        <v>30.600415414970801</v>
+        <v>30.7633814989786</v>
       </c>
       <c r="H64" s="36">
-        <v>28.6721248600936</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28.8319903473271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>30</v>
       </c>
@@ -3048,25 +3048,25 @@
         <v>127</v>
       </c>
       <c r="C65" s="43">
-        <v>62.322910378066197</v>
+        <v>62.333681555912499</v>
       </c>
       <c r="D65" s="44">
-        <v>36.3291499245463</v>
+        <v>36.318879054108002</v>
       </c>
       <c r="E65" s="44">
-        <v>1.2548722206531999</v>
+        <v>1.2589130121668</v>
       </c>
       <c r="F65" s="44">
-        <v>9.3067476734370005E-2</v>
+        <v>8.8526377812699994E-2</v>
       </c>
       <c r="G65" s="44">
-        <v>23.6549274917971</v>
+        <v>23.6596735498598</v>
       </c>
       <c r="H65" s="45">
-        <v>23.6811990966835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>23.681389548938899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>30</v>
       </c>
@@ -3074,25 +3074,25 @@
         <v>128</v>
       </c>
       <c r="C66" s="47">
-        <v>71.301759249933596</v>
+        <v>71.308590185659298</v>
       </c>
       <c r="D66" s="48">
-        <v>27.2530842220607</v>
+        <v>27.246169724324901</v>
       </c>
       <c r="E66" s="48">
-        <v>1.3042546176393599</v>
+        <v>1.3051028036686001</v>
       </c>
       <c r="F66" s="48">
-        <v>0.14090191036642</v>
+        <v>0.14013728634719</v>
       </c>
       <c r="G66" s="48">
-        <v>30.3299427577941</v>
+        <v>30.362198570361102</v>
       </c>
       <c r="H66" s="49">
-        <v>30.422385634612301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.4539773877773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>30</v>
       </c>
@@ -3100,25 +3100,25 @@
         <v>129</v>
       </c>
       <c r="C67" s="51">
-        <v>88.563866102206106</v>
+        <v>88.547748500693302</v>
       </c>
       <c r="D67" s="52">
-        <v>16.6567186069665</v>
+        <v>16.6857375053157</v>
       </c>
       <c r="E67" s="52">
-        <v>2.3778283635658499</v>
+        <v>2.3810771209428299</v>
       </c>
       <c r="F67" s="52">
-        <v>-7.5984130727384001</v>
+        <v>-7.6145631269517997</v>
       </c>
       <c r="G67" s="52">
-        <v>26.455698298207</v>
+        <v>26.461137945188302</v>
       </c>
       <c r="H67" s="53">
-        <v>18.857285225468601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18.846574818236501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>30</v>
       </c>
@@ -3126,25 +3126,25 @@
         <v>130</v>
       </c>
       <c r="C68" s="43">
-        <v>85.234600723734204</v>
+        <v>85.229080731489304</v>
       </c>
       <c r="D68" s="44">
-        <v>18.498069658632499</v>
+        <v>18.520924284648</v>
       </c>
       <c r="E68" s="44">
-        <v>2.1010196801337302</v>
+        <v>2.1025158013960801</v>
       </c>
       <c r="F68" s="44">
-        <v>-5.8336900625004002</v>
+        <v>-5.8525208175334003</v>
       </c>
       <c r="G68" s="44">
-        <v>27.2032141353254</v>
+        <v>27.192974842802801</v>
       </c>
       <c r="H68" s="45">
-        <v>21.369524072825001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21.340454025269398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>30</v>
       </c>
@@ -3152,25 +3152,25 @@
         <v>131</v>
       </c>
       <c r="C69" s="43">
-        <v>82.499491714524495</v>
+        <v>82.531416543218995</v>
       </c>
       <c r="D69" s="44">
-        <v>25.3544479547561</v>
+        <v>25.315218868201701</v>
       </c>
       <c r="E69" s="44">
-        <v>-0.42669362450839998</v>
+        <v>-0.4242350086144</v>
       </c>
       <c r="F69" s="44">
-        <v>-7.4272460447722999</v>
+        <v>-7.4224004028063</v>
       </c>
       <c r="G69" s="44">
-        <v>26.267561688151101</v>
+        <v>26.325029044498802</v>
       </c>
       <c r="H69" s="45">
-        <v>18.840315643378801</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18.902628641692399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>30</v>
       </c>
@@ -3178,25 +3178,25 @@
         <v>132</v>
       </c>
       <c r="C70" s="43">
-        <v>72.297359975830105</v>
+        <v>72.2728779727057</v>
       </c>
       <c r="D70" s="44">
-        <v>20.2571411338755</v>
+        <v>20.233875275690401</v>
       </c>
       <c r="E70" s="44">
-        <v>1.0716093009470001E-2</v>
+        <v>1.0898963646860001E-2</v>
       </c>
       <c r="F70" s="44">
-        <v>7.4347827972849698</v>
+        <v>7.4823477879571101</v>
       </c>
       <c r="G70" s="44">
-        <v>30.411284208848901</v>
+        <v>30.533453463132901</v>
       </c>
       <c r="H70" s="45">
-        <v>37.8460670061339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>38.015801251089997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>30</v>
       </c>
@@ -3204,25 +3204,25 @@
         <v>133</v>
       </c>
       <c r="C71" s="43">
-        <v>81.302804174256593</v>
+        <v>81.3109691816165</v>
       </c>
       <c r="D71" s="44">
-        <v>21.6166402859618</v>
+        <v>21.617331362391699</v>
       </c>
       <c r="E71" s="44">
-        <v>0.85030035653744995</v>
+        <v>0.84944230941719001</v>
       </c>
       <c r="F71" s="44">
-        <v>-3.7697448167558001</v>
+        <v>-3.7777428534254001</v>
       </c>
       <c r="G71" s="44">
-        <v>23.391647626914299</v>
+        <v>23.391363470213101</v>
       </c>
       <c r="H71" s="45">
-        <v>19.621902810158499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19.613620616787699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>30</v>
       </c>
@@ -3230,25 +3230,25 @@
         <v>134</v>
       </c>
       <c r="C72" s="43">
-        <v>85.998134515087202</v>
+        <v>85.962199116529007</v>
       </c>
       <c r="D72" s="44">
-        <v>23.495789278087699</v>
+        <v>23.648583498037599</v>
       </c>
       <c r="E72" s="44">
-        <v>0.10013756748386</v>
+        <v>0.10227472358688</v>
       </c>
       <c r="F72" s="44">
-        <v>-9.5940613606588006</v>
+        <v>-9.7130573381533996</v>
       </c>
       <c r="G72" s="44">
-        <v>21.9128526566179</v>
+        <v>21.759907236995801</v>
       </c>
       <c r="H72" s="45">
-        <v>12.3187912959591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12.0468498988424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>30</v>
       </c>
@@ -3256,25 +3256,25 @@
         <v>135</v>
       </c>
       <c r="C73" s="43">
-        <v>78.245063586235304</v>
+        <v>78.253528727374899</v>
       </c>
       <c r="D73" s="44">
-        <v>20.724499640945002</v>
+        <v>20.7152542199366</v>
       </c>
       <c r="E73" s="44">
-        <v>0.35972378287987</v>
+        <v>0.35941574161110001</v>
       </c>
       <c r="F73" s="44">
-        <v>0.67071298993983997</v>
+        <v>0.67180131107746999</v>
       </c>
       <c r="G73" s="44">
-        <v>33.459570143196402</v>
+        <v>33.488235948013603</v>
       </c>
       <c r="H73" s="45">
-        <v>34.130283133136203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34.160037259090998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>30</v>
       </c>
@@ -3282,25 +3282,25 @@
         <v>136</v>
       </c>
       <c r="C74" s="43">
-        <v>73.024237991567105</v>
+        <v>73.012449867553201</v>
       </c>
       <c r="D74" s="44">
-        <v>27.9255592981138</v>
+        <v>27.941988548845799</v>
       </c>
       <c r="E74" s="44">
-        <v>0.34488162562377001</v>
+        <v>0.33641836968078997</v>
       </c>
       <c r="F74" s="44">
-        <v>-1.2946789153047</v>
+        <v>-1.2908567860797999</v>
       </c>
       <c r="G74" s="44">
-        <v>39.613237428367697</v>
+        <v>39.605427993362298</v>
       </c>
       <c r="H74" s="45">
-        <v>38.318558513063003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>38.314571207282597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>30</v>
       </c>
@@ -3308,25 +3308,25 @@
         <v>137</v>
       </c>
       <c r="C75" s="47">
-        <v>64.177937600434504</v>
+        <v>64.160365016026304</v>
       </c>
       <c r="D75" s="48">
-        <v>29.9033445083111</v>
+        <v>29.897357863649798</v>
       </c>
       <c r="E75" s="48">
-        <v>2.1696559964240001E-2</v>
+        <v>2.1786124243280001E-2</v>
       </c>
       <c r="F75" s="48">
-        <v>5.8970213312902002</v>
+        <v>5.9204909960806198</v>
       </c>
       <c r="G75" s="48">
-        <v>33.534352804720299</v>
+        <v>33.516792465614998</v>
       </c>
       <c r="H75" s="49">
-        <v>39.431374136010497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.4372834616956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>30</v>
       </c>
@@ -3334,25 +3334,25 @@
         <v>138</v>
       </c>
       <c r="C76" s="51">
-        <v>68.102542963005902</v>
+        <v>68.103331877511394</v>
       </c>
       <c r="D76" s="52">
-        <v>26.998337555159001</v>
+        <v>26.9959767662255</v>
       </c>
       <c r="E76" s="52">
-        <v>2.0631416483890499</v>
+        <v>2.0641224566127998</v>
       </c>
       <c r="F76" s="52">
-        <v>2.8359778334460701</v>
+        <v>2.8365688996503402</v>
       </c>
       <c r="G76" s="52">
-        <v>50.4289384010563</v>
+        <v>50.435789190029297</v>
       </c>
       <c r="H76" s="53">
-        <v>53.252867804450901</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53.260400910542998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>30</v>
       </c>
@@ -3360,25 +3360,25 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>80.632651483470497</v>
+        <v>80.631057066369493</v>
       </c>
       <c r="D77" s="44">
-        <v>19.682164588691101</v>
+        <v>19.681210705015399</v>
       </c>
       <c r="E77" s="44">
-        <v>0.26921476641206998</v>
+        <v>0.26863656005941999</v>
       </c>
       <c r="F77" s="44">
-        <v>-0.58403083857360005</v>
+        <v>-0.58090433144429998</v>
       </c>
       <c r="G77" s="44">
-        <v>22.982606019176899</v>
+        <v>22.9814324458976</v>
       </c>
       <c r="H77" s="45">
-        <v>22.398575180603299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.400528114453301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>30</v>
       </c>
@@ -3386,25 +3386,25 @@
         <v>140</v>
       </c>
       <c r="C78" s="43">
-        <v>74.256955168604094</v>
+        <v>74.258329749087096</v>
       </c>
       <c r="D78" s="44">
-        <v>22.586726759692201</v>
+        <v>22.5806667216793</v>
       </c>
       <c r="E78" s="44">
-        <v>1.9807191652315601</v>
+        <v>1.97878214318177</v>
       </c>
       <c r="F78" s="44">
-        <v>1.1755989064721599</v>
+        <v>1.18222138605182</v>
       </c>
       <c r="G78" s="44">
-        <v>54.539113370785998</v>
+        <v>54.549008974442899</v>
       </c>
       <c r="H78" s="45">
-        <v>55.714712277258101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>55.731230360494799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>30</v>
       </c>
@@ -3412,25 +3412,25 @@
         <v>141</v>
       </c>
       <c r="C79" s="47">
-        <v>77.317136694916002</v>
+        <v>77.3155980445935</v>
       </c>
       <c r="D79" s="48">
-        <v>22.717867252822099</v>
+        <v>22.715629722513</v>
       </c>
       <c r="E79" s="48">
-        <v>1.32950299862605</v>
+        <v>1.32791258245413</v>
       </c>
       <c r="F79" s="48">
-        <v>-1.3645069463641</v>
+        <v>-1.3591403495606</v>
       </c>
       <c r="G79" s="48">
-        <v>34.7285820729713</v>
+        <v>34.7739631889701</v>
       </c>
       <c r="H79" s="49">
-        <v>33.364075493980899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33.414823206107002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>30</v>
       </c>
@@ -3438,25 +3438,25 @@
         <v>142</v>
       </c>
       <c r="C80" s="51">
-        <v>60.217787575001203</v>
+        <v>60.201084198860201</v>
       </c>
       <c r="D80" s="52">
-        <v>29.5712118155786</v>
+        <v>29.549642323130801</v>
       </c>
       <c r="E80" s="52">
-        <v>-0.72910133733159999</v>
+        <v>-0.73547130189340004</v>
       </c>
       <c r="F80" s="52">
-        <v>10.940101946751801</v>
+        <v>10.9847447799024</v>
       </c>
       <c r="G80" s="52">
-        <v>26.6512725685558</v>
+        <v>26.706838020743401</v>
       </c>
       <c r="H80" s="53">
-        <v>37.5913745153075</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37.691582800645698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>30</v>
       </c>
@@ -3464,25 +3464,25 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>61.6915742880038</v>
+        <v>61.680880815556797</v>
       </c>
       <c r="D81" s="44">
-        <v>22.327940501993599</v>
+        <v>22.332725236985102</v>
       </c>
       <c r="E81" s="44">
-        <v>3.7830152672688802</v>
+        <v>3.7998398685492498</v>
       </c>
       <c r="F81" s="44">
-        <v>12.197469942733701</v>
+        <v>12.1865540789089</v>
       </c>
       <c r="G81" s="44">
-        <v>25.3220863268849</v>
+        <v>25.346190360925501</v>
       </c>
       <c r="H81" s="45">
-        <v>37.174368983743697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37.188568073675398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>30</v>
       </c>
@@ -3490,25 +3490,25 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>84.575820939826002</v>
+        <v>84.571946604215697</v>
       </c>
       <c r="D82" s="44">
-        <v>19.3040210826437</v>
+        <v>19.3162839915564</v>
       </c>
       <c r="E82" s="44">
-        <v>1.5469783105708299</v>
+        <v>1.54810510092919</v>
       </c>
       <c r="F82" s="44">
-        <v>-5.4268203330405003</v>
+        <v>-5.4363356967012999</v>
       </c>
       <c r="G82" s="44">
-        <v>28.160333886790202</v>
+        <v>28.167154031668701</v>
       </c>
       <c r="H82" s="45">
-        <v>22.733513553749699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.730818334967399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>30</v>
       </c>
@@ -3516,25 +3516,25 @@
         <v>145</v>
       </c>
       <c r="C83" s="47">
-        <v>71.521675676898298</v>
+        <v>71.532876665813106</v>
       </c>
       <c r="D83" s="48">
-        <v>28.035153574353401</v>
+        <v>28.025714570258099</v>
       </c>
       <c r="E83" s="48">
-        <v>1.10177316009472</v>
+        <v>1.1013024749221001</v>
       </c>
       <c r="F83" s="48">
-        <v>-0.65860241134639996</v>
+        <v>-0.65989371099320004</v>
       </c>
       <c r="G83" s="48">
-        <v>30.882137064144199</v>
+        <v>30.916246772062099</v>
       </c>
       <c r="H83" s="49">
-        <v>30.189474945647699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.222352239950599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>30</v>
       </c>
@@ -3542,25 +3542,25 @@
         <v>146</v>
       </c>
       <c r="C84" s="51">
-        <v>85.204469173070706</v>
+        <v>85.177191756261394</v>
       </c>
       <c r="D84" s="52">
-        <v>24.3141308619367</v>
+        <v>24.397045476809399</v>
       </c>
       <c r="E84" s="52">
-        <v>0.28111098692427999</v>
+        <v>0.28280812965315999</v>
       </c>
       <c r="F84" s="52">
-        <v>-9.7997110219316994</v>
+        <v>-9.8570453627239001</v>
       </c>
       <c r="G84" s="52">
-        <v>33.096677414917501</v>
+        <v>33.0879080775183</v>
       </c>
       <c r="H84" s="53">
-        <v>23.296966392985802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23.230862714794299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>30</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>10.715256626914099</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>30</v>
       </c>
@@ -3594,25 +3594,25 @@
         <v>148</v>
       </c>
       <c r="C86" s="43">
-        <v>80.650476391316801</v>
+        <v>80.627756589462194</v>
       </c>
       <c r="D86" s="44">
-        <v>20.8903713662509</v>
+        <v>20.897917241850202</v>
       </c>
       <c r="E86" s="44">
-        <v>1.5335778710966499</v>
+        <v>1.53127633348599</v>
       </c>
       <c r="F86" s="44">
-        <v>-3.0744256286642999</v>
+        <v>-3.0569501647983999</v>
       </c>
       <c r="G86" s="44">
-        <v>25.6222852164499</v>
+        <v>25.638550963932801</v>
       </c>
       <c r="H86" s="45">
-        <v>22.547859587785599</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.581600799134399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>30</v>
       </c>
@@ -3620,25 +3620,25 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>73.765286243418302</v>
+        <v>73.766747103404498</v>
       </c>
       <c r="D87" s="44">
-        <v>28.736288370697299</v>
+        <v>28.732153053350899</v>
       </c>
       <c r="E87" s="44">
-        <v>1.88806621776282</v>
+        <v>1.8955317918258801</v>
       </c>
       <c r="F87" s="44">
-        <v>-4.3896408318783999</v>
+        <v>-4.3944319485812002</v>
       </c>
       <c r="G87" s="44">
-        <v>27.438469008611399</v>
+        <v>27.444438828795001</v>
       </c>
       <c r="H87" s="45">
-        <v>22.639997262885299</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.642351129525199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>30</v>
       </c>
@@ -3646,25 +3646,25 @@
         <v>150</v>
       </c>
       <c r="C88" s="43">
-        <v>81.843076579226704</v>
+        <v>81.840256886682496</v>
       </c>
       <c r="D88" s="44">
-        <v>15.2483301725806</v>
+        <v>15.241155485426001</v>
       </c>
       <c r="E88" s="44">
-        <v>0.94609609220502999</v>
+        <v>0.94478644766040998</v>
       </c>
       <c r="F88" s="44">
-        <v>1.96249715598769</v>
+        <v>1.9738011802311899</v>
       </c>
       <c r="G88" s="44">
-        <v>33.853785610996702</v>
+        <v>33.855574077500798</v>
       </c>
       <c r="H88" s="45">
-        <v>35.816282766984401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.829375257732003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>30</v>
       </c>
@@ -3672,25 +3672,25 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>62.153170655559101</v>
+        <v>62.191613619463503</v>
       </c>
       <c r="D89" s="44">
-        <v>34.088551785479098</v>
+        <v>34.061938358107099</v>
       </c>
       <c r="E89" s="44">
-        <v>1.1386118310183999</v>
+        <v>1.1375761791291901</v>
       </c>
       <c r="F89" s="44">
-        <v>2.6196657279434099</v>
+        <v>2.6088718433002298</v>
       </c>
       <c r="G89" s="44">
-        <v>24.742493303052299</v>
+        <v>24.793238697664901</v>
       </c>
       <c r="H89" s="45">
-        <v>27.287127656878202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>27.327259136263098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>30</v>
       </c>
@@ -3698,25 +3698,25 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>75.901831986487693</v>
+        <v>75.892627901392601</v>
       </c>
       <c r="D90" s="48">
-        <v>22.567235894732701</v>
+        <v>22.5679837489585</v>
       </c>
       <c r="E90" s="48">
-        <v>1.2407492909126101</v>
+        <v>1.24070343644199</v>
       </c>
       <c r="F90" s="48">
-        <v>0.29018282786698002</v>
+        <v>0.29868491320696999</v>
       </c>
       <c r="G90" s="48">
-        <v>35.616271735910502</v>
+        <v>35.649294110735099</v>
       </c>
       <c r="H90" s="49">
-        <v>35.906454940638497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.947979400518498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>30</v>
       </c>
@@ -3724,25 +3724,25 @@
         <v>153</v>
       </c>
       <c r="C91" s="51">
-        <v>78.713052350441799</v>
+        <v>78.675951683757901</v>
       </c>
       <c r="D91" s="52">
-        <v>27.228503379193601</v>
+        <v>27.2920476078795</v>
       </c>
       <c r="E91" s="52">
-        <v>-0.17871547294109999</v>
+        <v>-0.18468255200479999</v>
       </c>
       <c r="F91" s="52">
-        <v>-5.7628402566943002</v>
+        <v>-5.7833167396325997</v>
       </c>
       <c r="G91" s="52">
-        <v>31.276057277245201</v>
+        <v>31.267473436174701</v>
       </c>
       <c r="H91" s="53">
-        <v>25.513217020550901</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25.484156696542101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>30</v>
       </c>
@@ -3750,25 +3750,25 @@
         <v>154</v>
       </c>
       <c r="C92" s="43">
-        <v>80.964759046582699</v>
+        <v>80.958375418329197</v>
       </c>
       <c r="D92" s="44">
-        <v>30.695324035135499</v>
+        <v>30.692102936276299</v>
       </c>
       <c r="E92" s="44">
-        <v>0.77766853661215996</v>
+        <v>0.77887839135741999</v>
       </c>
       <c r="F92" s="44">
-        <v>-12.437751618329999</v>
+        <v>-12.429356745963</v>
       </c>
       <c r="G92" s="44">
-        <v>29.675431222978599</v>
+        <v>29.680895392622201</v>
       </c>
       <c r="H92" s="45">
-        <v>17.237679604648299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17.251538646659299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>30</v>
       </c>
@@ -3776,25 +3776,25 @@
         <v>155</v>
       </c>
       <c r="C93" s="43">
-        <v>89.638228187934899</v>
+        <v>89.561047414220596</v>
       </c>
       <c r="D93" s="44">
-        <v>22.1542007460821</v>
+        <v>22.191375094863201</v>
       </c>
       <c r="E93" s="44">
-        <v>-5.4141908991900002E-2</v>
+        <v>-5.3057416245400002E-2</v>
       </c>
       <c r="F93" s="44">
-        <v>-11.738287025025</v>
+        <v>-11.699365092838001</v>
       </c>
       <c r="G93" s="44">
-        <v>62.6493008996448</v>
+        <v>62.874953225289801</v>
       </c>
       <c r="H93" s="45">
-        <v>50.911013874619698</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51.175588132451601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>30</v>
       </c>
@@ -3802,25 +3802,25 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>56.256953228476199</v>
+        <v>56.321736486528899</v>
       </c>
       <c r="D94" s="44">
-        <v>23.163533388570901</v>
+        <v>23.172650005412599</v>
       </c>
       <c r="E94" s="44">
-        <v>0.99179002861525001</v>
+        <v>0.99181163759275004</v>
       </c>
       <c r="F94" s="44">
-        <v>19.5877233543378</v>
+        <v>19.513801870465802</v>
       </c>
       <c r="G94" s="44">
-        <v>110.346641376101</v>
+        <v>110.13184124147401</v>
       </c>
       <c r="H94" s="45">
-        <v>129.934364730439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>129.64564311193999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>30</v>
       </c>
@@ -3828,25 +3828,25 @@
         <v>157</v>
       </c>
       <c r="C95" s="43">
-        <v>83.622454352832804</v>
+        <v>83.620730474383393</v>
       </c>
       <c r="D95" s="44">
-        <v>24.712548660152301</v>
+        <v>24.711997018853499</v>
       </c>
       <c r="E95" s="44">
-        <v>0.38827226245170998</v>
+        <v>0.38851897979536998</v>
       </c>
       <c r="F95" s="44">
-        <v>-8.7232752754367997</v>
+        <v>-8.7212464730323003</v>
       </c>
       <c r="G95" s="44">
-        <v>28.6126026724544</v>
+        <v>28.606911399290301</v>
       </c>
       <c r="H95" s="45">
-        <v>19.889327397017698</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.885664926258102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>30</v>
       </c>
@@ -3854,25 +3854,25 @@
         <v>158</v>
       </c>
       <c r="C96" s="47">
-        <v>74.069529516517306</v>
+        <v>74.115697622998695</v>
       </c>
       <c r="D96" s="48">
-        <v>24.4178411118389</v>
+        <v>24.417595728644301</v>
       </c>
       <c r="E96" s="48">
-        <v>3.5584249717701999</v>
+        <v>3.55715731203879</v>
       </c>
       <c r="F96" s="48">
-        <v>-2.0457956001264002</v>
+        <v>-2.0904506636817999</v>
       </c>
       <c r="G96" s="48">
-        <v>37.860485645306902</v>
+        <v>37.897912056148797</v>
       </c>
       <c r="H96" s="49">
-        <v>35.814690045180598</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.807461392467097</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>30</v>
       </c>
@@ -3880,25 +3880,25 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>79.699764984553497</v>
+        <v>79.691397980803004</v>
       </c>
       <c r="D97" s="52">
-        <v>24.521734728529001</v>
+        <v>24.5291070960319</v>
       </c>
       <c r="E97" s="52">
-        <v>-8.4002208994100006E-2</v>
+        <v>-8.6635620693299997E-2</v>
       </c>
       <c r="F97" s="52">
-        <v>-4.1374975040884001</v>
+        <v>-4.1338694561415998</v>
       </c>
       <c r="G97" s="52">
-        <v>23.295349503536499</v>
+        <v>23.308418995661899</v>
       </c>
       <c r="H97" s="53">
-        <v>19.157851999448098</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.174549539520299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>30</v>
       </c>
@@ -3906,25 +3906,25 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>78.676045325895501</v>
+        <v>78.604277470258694</v>
       </c>
       <c r="D98" s="48">
-        <v>23.1393376275857</v>
+        <v>23.151717389687999</v>
       </c>
       <c r="E98" s="48">
-        <v>4.5928667145691202</v>
+        <v>4.6192246154434802</v>
       </c>
       <c r="F98" s="48">
-        <v>-6.4082496680503001</v>
+        <v>-6.3752194753901996</v>
       </c>
       <c r="G98" s="48">
-        <v>23.929108903351601</v>
+        <v>23.914261042785999</v>
       </c>
       <c r="H98" s="49">
-        <v>17.520859235301302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17.539041567395799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -3934,7 +3934,7 @@
       <c r="G99" s="56"/>
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="G101" s="57"/>
       <c r="H101" s="57"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="G102" s="57"/>
       <c r="H102" s="57"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="G103" s="57"/>
       <c r="H103" s="57"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="G104" s="57"/>
       <c r="H104" s="57"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -3997,7 +3997,7 @@
       <c r="G105" s="57"/>
       <c r="H105" s="57"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4005,7 +4005,7 @@
       <c r="G106" s="57"/>
       <c r="H106" s="57"/>
     </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>166</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="G107" s="57"/>
       <c r="H107" s="57"/>
     </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4025,7 +4025,7 @@
       <c r="G108" s="57"/>
       <c r="H108" s="57"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="G109" s="57"/>
       <c r="H109" s="57"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="G110" s="57"/>
       <c r="H110" s="57"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="G111" s="57"/>
       <c r="H111" s="57"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="G112" s="57"/>
       <c r="H112" s="57"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="G113" s="57"/>
       <c r="H113" s="57"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4091,12 +4091,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DFADEF0B-0DE2-4837-BEC1-F346BD151504}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{820F61D1-D1AD-40BB-BCE3-BF2349665236}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{82C0F782-16B9-4086-8FEE-8283DCC9F3C6}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{55625BD8-6799-4B07-815B-39C37FC2E81C}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{9967C12F-53A3-470E-B552-0CFF087ED785}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D55D4382-ACCE-423F-A24D-CC6F133292E6}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A6CC94AB-601A-492E-9E5F-3A920F0159C7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9CA13F98-80B6-4C3A-8D3F-1175765D5F8C}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{EF5B8CA9-590D-4773-8964-D7F4B68C6A68}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{D8E9B6C8-63EE-4987-BDC2-FC582AE345AC}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{B23EFD7C-90CD-43EC-BC30-154F64B6D978}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{61B7D3A0-C16F-4600-A33D-E16016B25DDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>
